--- a/dados/bd_senna_rdz_sal.xlsx
+++ b/dados/bd_senna_rdz_sal.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rprimi/Dropbox (Personal)/Ciencia de dados/ds_psicom/dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66286D91-F38E-4945-A723-128607D50887}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B367333D-9FDD-884E-A06A-D5CE4890F09F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="bd_exp" sheetId="8" r:id="rId1"/>
+    <sheet name="bd" sheetId="8" r:id="rId1"/>
     <sheet name="Legenda" sheetId="2" r:id="rId2"/>
     <sheet name="dic_itens" sheetId="5" r:id="rId3"/>
-    <sheet name="dic_vign" sheetId="7" r:id="rId4"/>
-    <sheet name="SAL" sheetId="6" r:id="rId5"/>
+    <sheet name="pairs" sheetId="9" r:id="rId4"/>
+    <sheet name="dic_vign" sheetId="7" r:id="rId5"/>
+    <sheet name="SAL" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2187" uniqueCount="783">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2352" uniqueCount="916">
   <si>
     <t>Legenda</t>
   </si>
@@ -2389,16 +2390,416 @@
   </si>
   <si>
     <t>factor0</t>
+  </si>
+  <si>
+    <t>forma final</t>
+  </si>
+  <si>
+    <t>CodItem</t>
+  </si>
+  <si>
+    <t>sv2.098</t>
+  </si>
+  <si>
+    <t>sv2.148</t>
+  </si>
+  <si>
+    <t>sv2.159</t>
+  </si>
+  <si>
+    <t>sv2.545</t>
+  </si>
+  <si>
+    <t>sv2.674</t>
+  </si>
+  <si>
+    <t>sv2.178</t>
+  </si>
+  <si>
+    <t>sv2.642</t>
+  </si>
+  <si>
+    <t>sv2.534</t>
+  </si>
+  <si>
+    <t>Sv1.034</t>
+  </si>
+  <si>
+    <t>sv2.202</t>
+  </si>
+  <si>
+    <t>sv2.572</t>
+  </si>
+  <si>
+    <t>sv2.279</t>
+  </si>
+  <si>
+    <t>Sv1.036</t>
+  </si>
+  <si>
+    <t>sv2.222</t>
+  </si>
+  <si>
+    <t>sv2.229</t>
+  </si>
+  <si>
+    <t>sv2.233</t>
+  </si>
+  <si>
+    <t>sv2.238</t>
+  </si>
+  <si>
+    <t>sv2.261</t>
+  </si>
+  <si>
+    <t>sv2.251</t>
+  </si>
+  <si>
+    <t>sv2.585</t>
+  </si>
+  <si>
+    <t>sv2.687</t>
+  </si>
+  <si>
+    <t>sv2.291</t>
+  </si>
+  <si>
+    <t>sv2.410</t>
+  </si>
+  <si>
+    <t>sv2.654</t>
+  </si>
+  <si>
+    <t>Sv1.071</t>
+  </si>
+  <si>
+    <t>sv2.323</t>
+  </si>
+  <si>
+    <t>Sv1.032</t>
+  </si>
+  <si>
+    <t>sv2.126</t>
+  </si>
+  <si>
+    <t>sv2.367</t>
+  </si>
+  <si>
+    <t>sv2.396</t>
+  </si>
+  <si>
+    <t>sv2.561</t>
+  </si>
+  <si>
+    <t>sv2.429</t>
+  </si>
+  <si>
+    <t>sv2.663</t>
+  </si>
+  <si>
+    <t>sv2.477</t>
+  </si>
+  <si>
+    <t>sv2.695</t>
+  </si>
+  <si>
+    <t>sv2.493</t>
+  </si>
+  <si>
+    <t>sv2.668</t>
+  </si>
+  <si>
+    <t>sv2.507</t>
+  </si>
+  <si>
+    <t>sv2.137</t>
+  </si>
+  <si>
+    <t>Sv1.004</t>
+  </si>
+  <si>
+    <t>sv2.116</t>
+  </si>
+  <si>
+    <t>sv2.097</t>
+  </si>
+  <si>
+    <t>sv2.542</t>
+  </si>
+  <si>
+    <t>sv2.676</t>
+  </si>
+  <si>
+    <t>sv2.162</t>
+  </si>
+  <si>
+    <t>sv2.174</t>
+  </si>
+  <si>
+    <t>sv2.538</t>
+  </si>
+  <si>
+    <t>sv2.191</t>
+  </si>
+  <si>
+    <t>sv2.680</t>
+  </si>
+  <si>
+    <t>sv2.644</t>
+  </si>
+  <si>
+    <t>sv2.684</t>
+  </si>
+  <si>
+    <t>sv2.262</t>
+  </si>
+  <si>
+    <t>sv2.648</t>
+  </si>
+  <si>
+    <t>sv2.283</t>
+  </si>
+  <si>
+    <t>sv2.228</t>
+  </si>
+  <si>
+    <t>sv2.236</t>
+  </si>
+  <si>
+    <t>sv2.686</t>
+  </si>
+  <si>
+    <t>sv2.257</t>
+  </si>
+  <si>
+    <t>sv2.290</t>
+  </si>
+  <si>
+    <t>sv2.219</t>
+  </si>
+  <si>
+    <t>sv2.249</t>
+  </si>
+  <si>
+    <t>sv2.258</t>
+  </si>
+  <si>
+    <t>sv2.688</t>
+  </si>
+  <si>
+    <t>sv2.301</t>
+  </si>
+  <si>
+    <t>Sv1.063</t>
+  </si>
+  <si>
+    <t>sv2.299</t>
+  </si>
+  <si>
+    <t>sv2.346</t>
+  </si>
+  <si>
+    <t>sv2.331</t>
+  </si>
+  <si>
+    <t>sv2.318</t>
+  </si>
+  <si>
+    <t>sv2.362</t>
+  </si>
+  <si>
+    <t>sv2.438</t>
+  </si>
+  <si>
+    <t>sv2.658</t>
+  </si>
+  <si>
+    <t>Sv1.079</t>
+  </si>
+  <si>
+    <t>sv2.369</t>
+  </si>
+  <si>
+    <t>sv2.551</t>
+  </si>
+  <si>
+    <t>sv2.413</t>
+  </si>
+  <si>
+    <t>sv2.560</t>
+  </si>
+  <si>
+    <t>sv2.411</t>
+  </si>
+  <si>
+    <t>sv2.662</t>
+  </si>
+  <si>
+    <t>Sv1.040</t>
+  </si>
+  <si>
+    <t>sv2.696</t>
+  </si>
+  <si>
+    <t>sv2.610</t>
+  </si>
+  <si>
+    <t>sv2.607</t>
+  </si>
+  <si>
+    <t>sv2.701</t>
+  </si>
+  <si>
+    <t>sv2.667</t>
+  </si>
+  <si>
+    <t>sv2.508</t>
+  </si>
+  <si>
+    <t>sv2.179</t>
+  </si>
+  <si>
+    <t>sv2.132</t>
+  </si>
+  <si>
+    <t>sv2.160</t>
+  </si>
+  <si>
+    <t>sv2.543</t>
+  </si>
+  <si>
+    <t>sv2.672</t>
+  </si>
+  <si>
+    <t>sv2.151</t>
+  </si>
+  <si>
+    <t>sv2.166</t>
+  </si>
+  <si>
+    <t>sv2.536</t>
+  </si>
+  <si>
+    <t>sv2.203</t>
+  </si>
+  <si>
+    <t>sv2.645</t>
+  </si>
+  <si>
+    <t>sv2.221</t>
+  </si>
+  <si>
+    <t>sv2.223</t>
+  </si>
+  <si>
+    <t>sv2.284</t>
+  </si>
+  <si>
+    <t>Sv1.051</t>
+  </si>
+  <si>
+    <t>Sv1.006</t>
+  </si>
+  <si>
+    <t>sv2.240</t>
+  </si>
+  <si>
+    <t>sv2.205</t>
+  </si>
+  <si>
+    <t>sv2.574</t>
+  </si>
+  <si>
+    <t>Sv1.091</t>
+  </si>
+  <si>
+    <t>sv2.256</t>
+  </si>
+  <si>
+    <t>sv2.244</t>
+  </si>
+  <si>
+    <t>sv2.195</t>
+  </si>
+  <si>
+    <t>sv2.652</t>
+  </si>
+  <si>
+    <t>sv2.620</t>
+  </si>
+  <si>
+    <t>sv2.298</t>
+  </si>
+  <si>
+    <t>sv2.311</t>
+  </si>
+  <si>
+    <t>sv2.656</t>
+  </si>
+  <si>
+    <t>sv2.332</t>
+  </si>
+  <si>
+    <t>Sv1.067</t>
+  </si>
+  <si>
+    <t>sv2.117</t>
+  </si>
+  <si>
+    <t>sv2.437</t>
+  </si>
+  <si>
+    <t>sv2.440</t>
+  </si>
+  <si>
+    <t>sv2.447</t>
+  </si>
+  <si>
+    <t>sv2.376</t>
+  </si>
+  <si>
+    <t>sv2.722</t>
+  </si>
+  <si>
+    <t>sv2.402</t>
+  </si>
+  <si>
+    <t>sv2.557</t>
+  </si>
+  <si>
+    <t>sv2.593</t>
+  </si>
+  <si>
+    <t>sv2.590</t>
+  </si>
+  <si>
+    <t>sv2.702</t>
+  </si>
+  <si>
+    <t>sv2.613</t>
+  </si>
+  <si>
+    <t>sv2.706</t>
+  </si>
+  <si>
+    <t>seman_pairs</t>
+  </si>
+  <si>
+    <t>ord0</t>
+  </si>
+  <si>
+    <t>idade2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2522,8 +2923,50 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3366FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2570,6 +3013,11 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF2CC"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -2742,7 +3190,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="28">
+  <cellStyleXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2771,8 +3219,10 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -2970,7 +3420,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -3008,8 +3457,29 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="28" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="29" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="28">
+  <cellStyles count="30">
+    <cellStyle name="Bom" xfId="29" builtinId="26"/>
     <cellStyle name="Hiperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hiperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hiperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -3038,6 +3508,7 @@
     <cellStyle name="Hiperlink Visitado" xfId="27" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Vírgula" xfId="28" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3351,9 +3822,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:FM77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="DS66" sqref="DS66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3376,7 +3847,9 @@
       <c r="C1" s="59" t="s">
         <v>262</v>
       </c>
-      <c r="D1" s="59"/>
+      <c r="D1" s="59" t="s">
+        <v>915</v>
+      </c>
       <c r="E1" s="59" t="s">
         <v>239</v>
       </c>
@@ -42279,8 +42752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:Y51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K46" sqref="I45:K46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -44322,11 +44795,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:Z112"/>
+  <dimension ref="A1:T112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N112" sqref="N112"/>
+      <selection pane="bottomLeft" activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -44335,14 +44808,14 @@
     <col min="13" max="13" width="14" style="85" customWidth="1"/>
     <col min="14" max="14" width="62.83203125" style="84" customWidth="1"/>
     <col min="15" max="15" width="26.1640625" style="84" customWidth="1"/>
-    <col min="16" max="16" width="48.83203125" style="84" customWidth="1"/>
+    <col min="16" max="16" width="28.33203125" style="84" customWidth="1"/>
     <col min="17" max="17" width="41.33203125" style="84" customWidth="1"/>
     <col min="18" max="18" width="52.83203125" style="84" customWidth="1"/>
-    <col min="19" max="19" width="116.1640625" style="84" customWidth="1"/>
+    <col min="19" max="19" width="12" style="84" customWidth="1"/>
     <col min="20" max="16384" width="10.83203125" style="84"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:20">
       <c r="A1" s="84" t="s">
         <v>263</v>
       </c>
@@ -44397,14 +44870,14 @@
       <c r="R1" s="84" t="s">
         <v>776</v>
       </c>
+      <c r="S1" s="84" t="s">
+        <v>914</v>
+      </c>
       <c r="T1" s="84" t="s">
         <v>267</v>
       </c>
-      <c r="Z1" s="86" t="s">
-        <v>662</v>
-      </c>
     </row>
-    <row r="2" spans="1:26" ht="16">
+    <row r="2" spans="1:20" ht="16">
       <c r="A2" s="87" t="s">
         <v>79</v>
       </c>
@@ -44462,11 +44935,8 @@
       <c r="T2" s="84" t="s">
         <v>270</v>
       </c>
-      <c r="Z2" s="91" t="s">
-        <v>680</v>
-      </c>
     </row>
-    <row r="3" spans="1:26" ht="16">
+    <row r="3" spans="1:20" ht="16">
       <c r="A3" s="87" t="s">
         <v>80</v>
       </c>
@@ -44525,7 +44995,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="16">
+    <row r="4" spans="1:20" ht="16">
       <c r="A4" s="87" t="s">
         <v>81</v>
       </c>
@@ -44584,7 +45054,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="16">
+    <row r="5" spans="1:20" ht="16">
       <c r="A5" s="87" t="s">
         <v>82</v>
       </c>
@@ -44643,7 +45113,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="16">
+    <row r="6" spans="1:20" ht="16">
       <c r="A6" s="87" t="s">
         <v>83</v>
       </c>
@@ -44702,7 +45172,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="16">
+    <row r="7" spans="1:20" ht="16">
       <c r="A7" s="87" t="s">
         <v>84</v>
       </c>
@@ -44761,7 +45231,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="16">
+    <row r="8" spans="1:20" ht="16">
       <c r="A8" s="87" t="s">
         <v>85</v>
       </c>
@@ -44820,7 +45290,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="16">
+    <row r="9" spans="1:20" ht="16">
       <c r="A9" s="87" t="s">
         <v>86</v>
       </c>
@@ -44879,7 +45349,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="16">
+    <row r="10" spans="1:20" ht="16">
       <c r="A10" s="87" t="s">
         <v>87</v>
       </c>
@@ -44938,7 +45408,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="17">
+    <row r="11" spans="1:20" ht="17">
       <c r="A11" s="87" t="s">
         <v>88</v>
       </c>
@@ -44997,7 +45467,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="17">
+    <row r="12" spans="1:20" ht="17">
       <c r="A12" s="87" t="s">
         <v>89</v>
       </c>
@@ -45056,7 +45526,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="17">
+    <row r="13" spans="1:20" ht="17">
       <c r="A13" s="87" t="s">
         <v>90</v>
       </c>
@@ -45115,7 +45585,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="17">
+    <row r="14" spans="1:20" ht="17">
       <c r="A14" s="87" t="s">
         <v>91</v>
       </c>
@@ -45174,7 +45644,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="17">
+    <row r="15" spans="1:20" ht="17">
       <c r="A15" s="87" t="s">
         <v>92</v>
       </c>
@@ -45233,7 +45703,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="17">
+    <row r="16" spans="1:20" ht="17">
       <c r="A16" s="87" t="s">
         <v>93</v>
       </c>
@@ -46040,7 +46510,7 @@
       <c r="L29" s="84">
         <v>0</v>
       </c>
-      <c r="M29" s="92">
+      <c r="M29" s="91">
         <v>28</v>
       </c>
       <c r="N29" s="90" t="s">
@@ -46326,7 +46796,7 @@
       <c r="M34" s="89">
         <v>33</v>
       </c>
-      <c r="N34" s="93" t="s">
+      <c r="N34" s="92" t="s">
         <v>366</v>
       </c>
       <c r="O34" s="84" t="s">
@@ -46382,10 +46852,10 @@
       <c r="L35" s="88">
         <v>1</v>
       </c>
-      <c r="M35" s="94">
-        <v>1</v>
-      </c>
-      <c r="N35" s="95" t="s">
+      <c r="M35" s="93">
+        <v>1</v>
+      </c>
+      <c r="N35" s="94" t="s">
         <v>369</v>
       </c>
       <c r="O35" s="84" t="s">
@@ -46435,10 +46905,10 @@
       <c r="L36" s="88">
         <v>1</v>
       </c>
-      <c r="M36" s="94">
-        <v>2</v>
-      </c>
-      <c r="N36" s="95" t="s">
+      <c r="M36" s="93">
+        <v>2</v>
+      </c>
+      <c r="N36" s="94" t="s">
         <v>372</v>
       </c>
       <c r="O36" s="84" t="s">
@@ -46488,10 +46958,10 @@
       <c r="L37" s="88">
         <v>1</v>
       </c>
-      <c r="M37" s="94">
-        <v>3</v>
-      </c>
-      <c r="N37" s="95" t="s">
+      <c r="M37" s="93">
+        <v>3</v>
+      </c>
+      <c r="N37" s="94" t="s">
         <v>375</v>
       </c>
       <c r="O37" s="84" t="s">
@@ -46541,10 +47011,10 @@
       <c r="L38" s="88">
         <v>1</v>
       </c>
-      <c r="M38" s="94">
-        <v>4</v>
-      </c>
-      <c r="N38" s="95" t="s">
+      <c r="M38" s="93">
+        <v>4</v>
+      </c>
+      <c r="N38" s="94" t="s">
         <v>378</v>
       </c>
       <c r="O38" s="84" t="s">
@@ -46594,10 +47064,10 @@
       <c r="L39" s="88">
         <v>1</v>
       </c>
-      <c r="M39" s="94">
-        <v>5</v>
-      </c>
-      <c r="N39" s="95" t="s">
+      <c r="M39" s="93">
+        <v>5</v>
+      </c>
+      <c r="N39" s="94" t="s">
         <v>381</v>
       </c>
       <c r="O39" s="84" t="s">
@@ -46647,10 +47117,10 @@
       <c r="L40" s="88">
         <v>1</v>
       </c>
-      <c r="M40" s="94">
+      <c r="M40" s="93">
         <v>6</v>
       </c>
-      <c r="N40" s="95" t="s">
+      <c r="N40" s="94" t="s">
         <v>384</v>
       </c>
       <c r="O40" s="84" t="s">
@@ -46700,10 +47170,10 @@
       <c r="L41" s="88">
         <v>1</v>
       </c>
-      <c r="M41" s="94">
+      <c r="M41" s="93">
         <v>7</v>
       </c>
-      <c r="N41" s="95" t="s">
+      <c r="N41" s="94" t="s">
         <v>387</v>
       </c>
       <c r="O41" s="84" t="s">
@@ -46753,10 +47223,10 @@
       <c r="L42" s="88">
         <v>1</v>
       </c>
-      <c r="M42" s="94">
+      <c r="M42" s="93">
         <v>8</v>
       </c>
-      <c r="N42" s="95" t="s">
+      <c r="N42" s="94" t="s">
         <v>390</v>
       </c>
       <c r="O42" s="84" t="s">
@@ -46806,10 +47276,10 @@
       <c r="L43" s="88">
         <v>1</v>
       </c>
-      <c r="M43" s="94">
+      <c r="M43" s="93">
         <v>9</v>
       </c>
-      <c r="N43" s="95" t="s">
+      <c r="N43" s="94" t="s">
         <v>393</v>
       </c>
       <c r="O43" s="84" t="s">
@@ -46859,10 +47329,10 @@
       <c r="L44" s="88">
         <v>1</v>
       </c>
-      <c r="M44" s="94">
+      <c r="M44" s="93">
         <v>10</v>
       </c>
-      <c r="N44" s="95" t="s">
+      <c r="N44" s="94" t="s">
         <v>396</v>
       </c>
       <c r="O44" s="84" t="s">
@@ -46912,10 +47382,10 @@
       <c r="L45" s="88">
         <v>1</v>
       </c>
-      <c r="M45" s="94">
+      <c r="M45" s="93">
         <v>11</v>
       </c>
-      <c r="N45" s="95" t="s">
+      <c r="N45" s="94" t="s">
         <v>399</v>
       </c>
       <c r="O45" s="84" t="s">
@@ -46965,10 +47435,10 @@
       <c r="L46" s="88">
         <v>1</v>
       </c>
-      <c r="M46" s="94">
+      <c r="M46" s="93">
         <v>12</v>
       </c>
-      <c r="N46" s="95" t="s">
+      <c r="N46" s="94" t="s">
         <v>402</v>
       </c>
       <c r="O46" s="84" t="s">
@@ -47018,10 +47488,10 @@
       <c r="L47" s="88">
         <v>1</v>
       </c>
-      <c r="M47" s="94">
+      <c r="M47" s="93">
         <v>13</v>
       </c>
-      <c r="N47" s="95" t="s">
+      <c r="N47" s="94" t="s">
         <v>405</v>
       </c>
       <c r="O47" s="84" t="s">
@@ -47071,10 +47541,10 @@
       <c r="L48" s="88">
         <v>1</v>
       </c>
-      <c r="M48" s="94">
+      <c r="M48" s="93">
         <v>14</v>
       </c>
-      <c r="N48" s="95" t="s">
+      <c r="N48" s="94" t="s">
         <v>408</v>
       </c>
       <c r="O48" s="84" t="s">
@@ -47124,10 +47594,10 @@
       <c r="L49" s="88">
         <v>1</v>
       </c>
-      <c r="M49" s="94">
+      <c r="M49" s="93">
         <v>15</v>
       </c>
-      <c r="N49" s="95" t="s">
+      <c r="N49" s="94" t="s">
         <v>411</v>
       </c>
       <c r="O49" s="84" t="s">
@@ -47177,10 +47647,10 @@
       <c r="L50" s="88">
         <v>1</v>
       </c>
-      <c r="M50" s="94">
+      <c r="M50" s="93">
         <v>16</v>
       </c>
-      <c r="N50" s="95" t="s">
+      <c r="N50" s="94" t="s">
         <v>414</v>
       </c>
       <c r="O50" s="84" t="s">
@@ -47230,10 +47700,10 @@
       <c r="L51" s="88">
         <v>1</v>
       </c>
-      <c r="M51" s="94">
+      <c r="M51" s="93">
         <v>17</v>
       </c>
-      <c r="N51" s="95" t="s">
+      <c r="N51" s="94" t="s">
         <v>417</v>
       </c>
       <c r="O51" s="84" t="s">
@@ -47283,10 +47753,10 @@
       <c r="L52" s="88">
         <v>1</v>
       </c>
-      <c r="M52" s="94">
+      <c r="M52" s="93">
         <v>18</v>
       </c>
-      <c r="N52" s="95" t="s">
+      <c r="N52" s="94" t="s">
         <v>420</v>
       </c>
       <c r="O52" s="84" t="s">
@@ -47336,10 +47806,10 @@
       <c r="L53" s="88">
         <v>1</v>
       </c>
-      <c r="M53" s="94">
+      <c r="M53" s="93">
         <v>19</v>
       </c>
-      <c r="N53" s="95" t="s">
+      <c r="N53" s="94" t="s">
         <v>423</v>
       </c>
       <c r="O53" s="84" t="s">
@@ -47389,10 +47859,10 @@
       <c r="L54" s="88">
         <v>1</v>
       </c>
-      <c r="M54" s="94">
+      <c r="M54" s="93">
         <v>20</v>
       </c>
-      <c r="N54" s="95" t="s">
+      <c r="N54" s="94" t="s">
         <v>426</v>
       </c>
       <c r="O54" s="84" t="s">
@@ -47442,10 +47912,10 @@
       <c r="L55" s="88">
         <v>1</v>
       </c>
-      <c r="M55" s="94">
+      <c r="M55" s="93">
         <v>21</v>
       </c>
-      <c r="N55" s="95" t="s">
+      <c r="N55" s="94" t="s">
         <v>429</v>
       </c>
       <c r="O55" s="84" t="s">
@@ -47495,10 +47965,10 @@
       <c r="L56" s="84">
         <v>0</v>
       </c>
-      <c r="M56" s="96">
+      <c r="M56" s="95">
         <v>22</v>
       </c>
-      <c r="N56" s="95" t="s">
+      <c r="N56" s="94" t="s">
         <v>443</v>
       </c>
     </row>
@@ -47542,10 +48012,10 @@
       <c r="L57" s="88">
         <v>1</v>
       </c>
-      <c r="M57" s="94">
+      <c r="M57" s="93">
         <v>23</v>
       </c>
-      <c r="N57" s="95" t="s">
+      <c r="N57" s="94" t="s">
         <v>432</v>
       </c>
       <c r="O57" s="84" t="s">
@@ -47595,10 +48065,10 @@
       <c r="L58" s="88">
         <v>1</v>
       </c>
-      <c r="M58" s="94">
+      <c r="M58" s="93">
         <v>24</v>
       </c>
-      <c r="N58" s="95" t="s">
+      <c r="N58" s="94" t="s">
         <v>435</v>
       </c>
       <c r="O58" s="84" t="s">
@@ -47648,10 +48118,10 @@
       <c r="L59" s="88">
         <v>1</v>
       </c>
-      <c r="M59" s="94">
+      <c r="M59" s="93">
         <v>25</v>
       </c>
-      <c r="N59" s="95" t="s">
+      <c r="N59" s="94" t="s">
         <v>438</v>
       </c>
       <c r="O59" s="84" t="s">
@@ -47701,10 +48171,10 @@
       <c r="L60" s="88">
         <v>1</v>
       </c>
-      <c r="M60" s="94">
+      <c r="M60" s="93">
         <v>26</v>
       </c>
-      <c r="N60" s="95" t="s">
+      <c r="N60" s="94" t="s">
         <v>441</v>
       </c>
       <c r="O60" s="84" t="s">
@@ -47718,16 +48188,16 @@
       <c r="A61" s="87" t="s">
         <v>138</v>
       </c>
-      <c r="B61" s="97" t="s">
+      <c r="B61" s="96" t="s">
         <v>474</v>
       </c>
-      <c r="C61" s="97" t="s">
+      <c r="C61" s="96" t="s">
         <v>474</v>
       </c>
-      <c r="D61" s="97" t="s">
+      <c r="D61" s="96" t="s">
         <v>474</v>
       </c>
-      <c r="E61" s="97" t="s">
+      <c r="E61" s="96" t="s">
         <v>474</v>
       </c>
       <c r="F61" s="84">
@@ -47736,34 +48206,34 @@
       <c r="G61" s="84">
         <v>60</v>
       </c>
-      <c r="H61" s="98" t="s">
+      <c r="H61" s="97" t="s">
         <v>472</v>
       </c>
       <c r="I61" s="86">
         <v>1</v>
       </c>
-      <c r="J61" s="97" t="s">
+      <c r="J61" s="96" t="s">
         <v>474</v>
       </c>
-      <c r="K61" s="97" t="s">
+      <c r="K61" s="96" t="s">
         <v>474</v>
       </c>
       <c r="L61" s="84">
         <v>1</v>
       </c>
-      <c r="M61" s="94">
-        <v>1</v>
-      </c>
-      <c r="N61" s="95" t="s">
+      <c r="M61" s="93">
+        <v>1</v>
+      </c>
+      <c r="N61" s="94" t="s">
         <v>444</v>
       </c>
-      <c r="P61" s="97" t="s">
+      <c r="P61" s="96" t="s">
         <v>473</v>
       </c>
-      <c r="Q61" s="97" t="s">
+      <c r="Q61" s="96" t="s">
         <v>479</v>
       </c>
-      <c r="R61" s="97" t="s">
+      <c r="R61" s="96" t="s">
         <v>478</v>
       </c>
     </row>
@@ -47771,16 +48241,16 @@
       <c r="A62" s="87" t="s">
         <v>139</v>
       </c>
-      <c r="B62" s="97" t="s">
+      <c r="B62" s="96" t="s">
         <v>484</v>
       </c>
-      <c r="C62" s="97" t="s">
+      <c r="C62" s="96" t="s">
         <v>484</v>
       </c>
-      <c r="D62" s="97" t="s">
+      <c r="D62" s="96" t="s">
         <v>484</v>
       </c>
-      <c r="E62" s="97" t="s">
+      <c r="E62" s="96" t="s">
         <v>484</v>
       </c>
       <c r="F62" s="84">
@@ -47789,34 +48259,34 @@
       <c r="G62" s="84">
         <v>61</v>
       </c>
-      <c r="H62" s="98" t="s">
+      <c r="H62" s="97" t="s">
         <v>482</v>
       </c>
       <c r="I62" s="86">
         <v>1</v>
       </c>
-      <c r="J62" s="97" t="s">
+      <c r="J62" s="96" t="s">
         <v>484</v>
       </c>
-      <c r="K62" s="97" t="s">
+      <c r="K62" s="96" t="s">
         <v>484</v>
       </c>
       <c r="L62" s="84">
         <v>1</v>
       </c>
-      <c r="M62" s="94">
-        <v>2</v>
-      </c>
-      <c r="N62" s="95" t="s">
+      <c r="M62" s="93">
+        <v>2</v>
+      </c>
+      <c r="N62" s="94" t="s">
         <v>445</v>
       </c>
-      <c r="P62" s="97" t="s">
+      <c r="P62" s="96" t="s">
         <v>483</v>
       </c>
-      <c r="Q62" s="97" t="s">
+      <c r="Q62" s="96" t="s">
         <v>486</v>
       </c>
-      <c r="R62" s="97" t="s">
+      <c r="R62" s="96" t="s">
         <v>485</v>
       </c>
     </row>
@@ -47824,16 +48294,16 @@
       <c r="A63" s="87" t="s">
         <v>140</v>
       </c>
-      <c r="B63" s="99" t="s">
+      <c r="B63" s="98" t="s">
         <v>490</v>
       </c>
-      <c r="C63" s="99" t="s">
+      <c r="C63" s="98" t="s">
         <v>490</v>
       </c>
-      <c r="D63" s="99" t="s">
+      <c r="D63" s="98" t="s">
         <v>490</v>
       </c>
-      <c r="E63" s="99" t="s">
+      <c r="E63" s="98" t="s">
         <v>490</v>
       </c>
       <c r="F63" s="84">
@@ -47842,34 +48312,34 @@
       <c r="G63" s="84">
         <v>62</v>
       </c>
-      <c r="H63" s="98" t="s">
+      <c r="H63" s="97" t="s">
         <v>489</v>
       </c>
       <c r="I63" s="86">
         <v>1</v>
       </c>
-      <c r="J63" s="99" t="s">
+      <c r="J63" s="98" t="s">
         <v>490</v>
       </c>
-      <c r="K63" s="99" t="s">
+      <c r="K63" s="98" t="s">
         <v>490</v>
       </c>
       <c r="L63" s="84">
         <v>1</v>
       </c>
-      <c r="M63" s="94">
-        <v>3</v>
-      </c>
-      <c r="N63" s="95" t="s">
+      <c r="M63" s="93">
+        <v>3</v>
+      </c>
+      <c r="N63" s="94" t="s">
         <v>446</v>
       </c>
-      <c r="P63" s="97" t="s">
+      <c r="P63" s="96" t="s">
         <v>473</v>
       </c>
-      <c r="Q63" s="97" t="s">
+      <c r="Q63" s="96" t="s">
         <v>479</v>
       </c>
-      <c r="R63" s="97" t="s">
+      <c r="R63" s="96" t="s">
         <v>491</v>
       </c>
     </row>
@@ -47877,16 +48347,16 @@
       <c r="A64" s="87" t="s">
         <v>141</v>
       </c>
-      <c r="B64" s="97" t="s">
+      <c r="B64" s="96" t="s">
         <v>496</v>
       </c>
-      <c r="C64" s="97" t="s">
+      <c r="C64" s="96" t="s">
         <v>496</v>
       </c>
-      <c r="D64" s="97" t="s">
+      <c r="D64" s="96" t="s">
         <v>496</v>
       </c>
-      <c r="E64" s="97" t="s">
+      <c r="E64" s="96" t="s">
         <v>496</v>
       </c>
       <c r="F64" s="84">
@@ -47895,34 +48365,34 @@
       <c r="G64" s="84">
         <v>63</v>
       </c>
-      <c r="H64" s="98" t="s">
+      <c r="H64" s="97" t="s">
         <v>494</v>
       </c>
       <c r="I64" s="86">
         <v>1</v>
       </c>
-      <c r="J64" s="97" t="s">
+      <c r="J64" s="96" t="s">
         <v>496</v>
       </c>
-      <c r="K64" s="97" t="s">
+      <c r="K64" s="96" t="s">
         <v>496</v>
       </c>
       <c r="L64" s="84">
         <v>1</v>
       </c>
-      <c r="M64" s="94">
-        <v>4</v>
-      </c>
-      <c r="N64" s="95" t="s">
+      <c r="M64" s="93">
+        <v>4</v>
+      </c>
+      <c r="N64" s="94" t="s">
         <v>447</v>
       </c>
-      <c r="P64" s="97" t="s">
+      <c r="P64" s="96" t="s">
         <v>495</v>
       </c>
-      <c r="Q64" s="97" t="s">
+      <c r="Q64" s="96" t="s">
         <v>498</v>
       </c>
-      <c r="R64" s="97" t="s">
+      <c r="R64" s="96" t="s">
         <v>497</v>
       </c>
     </row>
@@ -47930,16 +48400,16 @@
       <c r="A65" s="87" t="s">
         <v>142</v>
       </c>
-      <c r="B65" s="97" t="s">
+      <c r="B65" s="96" t="s">
         <v>474</v>
       </c>
-      <c r="C65" s="97" t="s">
+      <c r="C65" s="96" t="s">
         <v>474</v>
       </c>
-      <c r="D65" s="97" t="s">
+      <c r="D65" s="96" t="s">
         <v>474</v>
       </c>
-      <c r="E65" s="97" t="s">
+      <c r="E65" s="96" t="s">
         <v>474</v>
       </c>
       <c r="F65" s="84">
@@ -47948,34 +48418,34 @@
       <c r="G65" s="84">
         <v>64</v>
       </c>
-      <c r="H65" s="98" t="s">
+      <c r="H65" s="97" t="s">
         <v>501</v>
       </c>
       <c r="I65" s="86">
         <v>1</v>
       </c>
-      <c r="J65" s="97" t="s">
+      <c r="J65" s="96" t="s">
         <v>474</v>
       </c>
-      <c r="K65" s="97" t="s">
+      <c r="K65" s="96" t="s">
         <v>474</v>
       </c>
       <c r="L65" s="84">
         <v>1</v>
       </c>
-      <c r="M65" s="94">
-        <v>5</v>
-      </c>
-      <c r="N65" s="95" t="s">
+      <c r="M65" s="93">
+        <v>5</v>
+      </c>
+      <c r="N65" s="94" t="s">
         <v>448</v>
       </c>
-      <c r="P65" s="97" t="s">
+      <c r="P65" s="96" t="s">
         <v>473</v>
       </c>
-      <c r="Q65" s="97" t="s">
+      <c r="Q65" s="96" t="s">
         <v>479</v>
       </c>
-      <c r="R65" s="97" t="s">
+      <c r="R65" s="96" t="s">
         <v>478</v>
       </c>
     </row>
@@ -47983,16 +48453,16 @@
       <c r="A66" s="87" t="s">
         <v>143</v>
       </c>
-      <c r="B66" s="97" t="s">
+      <c r="B66" s="96" t="s">
         <v>505</v>
       </c>
-      <c r="C66" s="97" t="s">
+      <c r="C66" s="96" t="s">
         <v>505</v>
       </c>
-      <c r="D66" s="97" t="s">
+      <c r="D66" s="96" t="s">
         <v>505</v>
       </c>
-      <c r="E66" s="97" t="s">
+      <c r="E66" s="96" t="s">
         <v>505</v>
       </c>
       <c r="F66" s="84">
@@ -48001,34 +48471,34 @@
       <c r="G66" s="84">
         <v>65</v>
       </c>
-      <c r="H66" s="98" t="s">
+      <c r="H66" s="97" t="s">
         <v>503</v>
       </c>
       <c r="I66" s="86">
         <v>1</v>
       </c>
-      <c r="J66" s="97" t="s">
+      <c r="J66" s="96" t="s">
         <v>505</v>
       </c>
-      <c r="K66" s="97" t="s">
+      <c r="K66" s="96" t="s">
         <v>505</v>
       </c>
       <c r="L66" s="84">
         <v>1</v>
       </c>
-      <c r="M66" s="94">
+      <c r="M66" s="93">
         <v>6</v>
       </c>
-      <c r="N66" s="95" t="s">
+      <c r="N66" s="94" t="s">
         <v>449</v>
       </c>
-      <c r="P66" s="97" t="s">
+      <c r="P66" s="96" t="s">
         <v>504</v>
       </c>
-      <c r="Q66" s="97" t="s">
+      <c r="Q66" s="96" t="s">
         <v>507</v>
       </c>
-      <c r="R66" s="97" t="s">
+      <c r="R66" s="96" t="s">
         <v>506</v>
       </c>
     </row>
@@ -48036,16 +48506,16 @@
       <c r="A67" s="87" t="s">
         <v>144</v>
       </c>
-      <c r="B67" s="97" t="s">
+      <c r="B67" s="96" t="s">
         <v>511</v>
       </c>
-      <c r="C67" s="97" t="s">
+      <c r="C67" s="96" t="s">
         <v>511</v>
       </c>
-      <c r="D67" s="97" t="s">
+      <c r="D67" s="96" t="s">
         <v>511</v>
       </c>
-      <c r="E67" s="97" t="s">
+      <c r="E67" s="96" t="s">
         <v>511</v>
       </c>
       <c r="F67" s="84">
@@ -48054,34 +48524,34 @@
       <c r="G67" s="84">
         <v>66</v>
       </c>
-      <c r="H67" s="98" t="s">
+      <c r="H67" s="97" t="s">
         <v>510</v>
       </c>
       <c r="I67" s="86">
         <v>1</v>
       </c>
-      <c r="J67" s="97" t="s">
+      <c r="J67" s="96" t="s">
         <v>511</v>
       </c>
-      <c r="K67" s="97" t="s">
+      <c r="K67" s="96" t="s">
         <v>511</v>
       </c>
       <c r="L67" s="84">
         <v>1</v>
       </c>
-      <c r="M67" s="94">
+      <c r="M67" s="93">
         <v>7</v>
       </c>
-      <c r="N67" s="95" t="s">
+      <c r="N67" s="94" t="s">
         <v>450</v>
       </c>
-      <c r="P67" s="97" t="s">
+      <c r="P67" s="96" t="s">
         <v>504</v>
       </c>
-      <c r="Q67" s="97" t="s">
+      <c r="Q67" s="96" t="s">
         <v>507</v>
       </c>
-      <c r="R67" s="97" t="s">
+      <c r="R67" s="96" t="s">
         <v>512</v>
       </c>
     </row>
@@ -48089,16 +48559,16 @@
       <c r="A68" s="87" t="s">
         <v>145</v>
       </c>
-      <c r="B68" s="97" t="s">
+      <c r="B68" s="96" t="s">
         <v>484</v>
       </c>
-      <c r="C68" s="97" t="s">
+      <c r="C68" s="96" t="s">
         <v>484</v>
       </c>
-      <c r="D68" s="97" t="s">
+      <c r="D68" s="96" t="s">
         <v>484</v>
       </c>
-      <c r="E68" s="97" t="s">
+      <c r="E68" s="96" t="s">
         <v>484</v>
       </c>
       <c r="F68" s="84">
@@ -48107,34 +48577,34 @@
       <c r="G68" s="84">
         <v>67</v>
       </c>
-      <c r="H68" s="98" t="s">
+      <c r="H68" s="97" t="s">
         <v>515</v>
       </c>
       <c r="I68" s="86">
         <v>1</v>
       </c>
-      <c r="J68" s="97" t="s">
+      <c r="J68" s="96" t="s">
         <v>484</v>
       </c>
-      <c r="K68" s="97" t="s">
+      <c r="K68" s="96" t="s">
         <v>484</v>
       </c>
       <c r="L68" s="84">
         <v>1</v>
       </c>
-      <c r="M68" s="94">
+      <c r="M68" s="93">
         <v>8</v>
       </c>
-      <c r="N68" s="95" t="s">
+      <c r="N68" s="94" t="s">
         <v>451</v>
       </c>
-      <c r="P68" s="97" t="s">
+      <c r="P68" s="96" t="s">
         <v>483</v>
       </c>
-      <c r="Q68" s="97" t="s">
+      <c r="Q68" s="96" t="s">
         <v>486</v>
       </c>
-      <c r="R68" s="97" t="s">
+      <c r="R68" s="96" t="s">
         <v>485</v>
       </c>
     </row>
@@ -48142,16 +48612,16 @@
       <c r="A69" s="87" t="s">
         <v>146</v>
       </c>
-      <c r="B69" s="97" t="s">
+      <c r="B69" s="96" t="s">
         <v>518</v>
       </c>
-      <c r="C69" s="97" t="s">
+      <c r="C69" s="96" t="s">
         <v>518</v>
       </c>
-      <c r="D69" s="97" t="s">
+      <c r="D69" s="96" t="s">
         <v>518</v>
       </c>
-      <c r="E69" s="97" t="s">
+      <c r="E69" s="96" t="s">
         <v>518</v>
       </c>
       <c r="F69" s="84">
@@ -48160,34 +48630,34 @@
       <c r="G69" s="84">
         <v>68</v>
       </c>
-      <c r="H69" s="98" t="s">
+      <c r="H69" s="97" t="s">
         <v>517</v>
       </c>
       <c r="I69" s="86">
         <v>1</v>
       </c>
-      <c r="J69" s="97" t="s">
+      <c r="J69" s="96" t="s">
         <v>518</v>
       </c>
-      <c r="K69" s="97" t="s">
+      <c r="K69" s="96" t="s">
         <v>518</v>
       </c>
       <c r="L69" s="84">
         <v>1</v>
       </c>
-      <c r="M69" s="94">
+      <c r="M69" s="93">
         <v>9</v>
       </c>
-      <c r="N69" s="95" t="s">
+      <c r="N69" s="94" t="s">
         <v>452</v>
       </c>
-      <c r="P69" s="97" t="s">
+      <c r="P69" s="96" t="s">
         <v>473</v>
       </c>
-      <c r="Q69" s="97" t="s">
+      <c r="Q69" s="96" t="s">
         <v>479</v>
       </c>
-      <c r="R69" s="97" t="s">
+      <c r="R69" s="96" t="s">
         <v>519</v>
       </c>
     </row>
@@ -48195,16 +48665,16 @@
       <c r="A70" s="87" t="s">
         <v>147</v>
       </c>
-      <c r="B70" s="97" t="s">
+      <c r="B70" s="96" t="s">
         <v>474</v>
       </c>
-      <c r="C70" s="97" t="s">
+      <c r="C70" s="96" t="s">
         <v>474</v>
       </c>
-      <c r="D70" s="97" t="s">
+      <c r="D70" s="96" t="s">
         <v>474</v>
       </c>
-      <c r="E70" s="97" t="s">
+      <c r="E70" s="96" t="s">
         <v>474</v>
       </c>
       <c r="F70" s="84">
@@ -48213,34 +48683,34 @@
       <c r="G70" s="84">
         <v>69</v>
       </c>
-      <c r="H70" s="98" t="s">
+      <c r="H70" s="97" t="s">
         <v>522</v>
       </c>
       <c r="I70" s="86">
         <v>1</v>
       </c>
-      <c r="J70" s="97" t="s">
+      <c r="J70" s="96" t="s">
         <v>474</v>
       </c>
-      <c r="K70" s="97" t="s">
+      <c r="K70" s="96" t="s">
         <v>474</v>
       </c>
       <c r="L70" s="84">
         <v>1</v>
       </c>
-      <c r="M70" s="94">
+      <c r="M70" s="93">
         <v>10</v>
       </c>
-      <c r="N70" s="95" t="s">
+      <c r="N70" s="94" t="s">
         <v>453</v>
       </c>
-      <c r="P70" s="97" t="s">
+      <c r="P70" s="96" t="s">
         <v>473</v>
       </c>
-      <c r="Q70" s="97" t="s">
+      <c r="Q70" s="96" t="s">
         <v>479</v>
       </c>
-      <c r="R70" s="97" t="s">
+      <c r="R70" s="96" t="s">
         <v>478</v>
       </c>
     </row>
@@ -48248,16 +48718,16 @@
       <c r="A71" s="87" t="s">
         <v>148</v>
       </c>
-      <c r="B71" s="97" t="s">
+      <c r="B71" s="96" t="s">
         <v>496</v>
       </c>
-      <c r="C71" s="97" t="s">
+      <c r="C71" s="96" t="s">
         <v>496</v>
       </c>
-      <c r="D71" s="97" t="s">
+      <c r="D71" s="96" t="s">
         <v>496</v>
       </c>
-      <c r="E71" s="97" t="s">
+      <c r="E71" s="96" t="s">
         <v>496</v>
       </c>
       <c r="F71" s="84">
@@ -48266,34 +48736,34 @@
       <c r="G71" s="84">
         <v>70</v>
       </c>
-      <c r="H71" s="98" t="s">
+      <c r="H71" s="97" t="s">
         <v>524</v>
       </c>
       <c r="I71" s="86">
         <v>1</v>
       </c>
-      <c r="J71" s="97" t="s">
+      <c r="J71" s="96" t="s">
         <v>496</v>
       </c>
-      <c r="K71" s="97" t="s">
+      <c r="K71" s="96" t="s">
         <v>496</v>
       </c>
       <c r="L71" s="84">
         <v>1</v>
       </c>
-      <c r="M71" s="94">
+      <c r="M71" s="93">
         <v>11</v>
       </c>
-      <c r="N71" s="95" t="s">
+      <c r="N71" s="94" t="s">
         <v>454</v>
       </c>
-      <c r="P71" s="97" t="s">
+      <c r="P71" s="96" t="s">
         <v>495</v>
       </c>
-      <c r="Q71" s="97" t="s">
+      <c r="Q71" s="96" t="s">
         <v>498</v>
       </c>
-      <c r="R71" s="97" t="s">
+      <c r="R71" s="96" t="s">
         <v>497</v>
       </c>
     </row>
@@ -48301,16 +48771,16 @@
       <c r="A72" s="87" t="s">
         <v>149</v>
       </c>
-      <c r="B72" s="97" t="s">
+      <c r="B72" s="96" t="s">
         <v>511</v>
       </c>
-      <c r="C72" s="97" t="s">
+      <c r="C72" s="96" t="s">
         <v>511</v>
       </c>
-      <c r="D72" s="97" t="s">
+      <c r="D72" s="96" t="s">
         <v>511</v>
       </c>
-      <c r="E72" s="97" t="s">
+      <c r="E72" s="96" t="s">
         <v>511</v>
       </c>
       <c r="F72" s="84">
@@ -48319,34 +48789,34 @@
       <c r="G72" s="84">
         <v>71</v>
       </c>
-      <c r="H72" s="98" t="s">
+      <c r="H72" s="97" t="s">
         <v>526</v>
       </c>
       <c r="I72" s="86">
         <v>1</v>
       </c>
-      <c r="J72" s="97" t="s">
+      <c r="J72" s="96" t="s">
         <v>511</v>
       </c>
-      <c r="K72" s="97" t="s">
+      <c r="K72" s="96" t="s">
         <v>511</v>
       </c>
       <c r="L72" s="84">
         <v>1</v>
       </c>
-      <c r="M72" s="94">
+      <c r="M72" s="93">
         <v>12</v>
       </c>
-      <c r="N72" s="95" t="s">
+      <c r="N72" s="94" t="s">
         <v>455</v>
       </c>
-      <c r="P72" s="97" t="s">
+      <c r="P72" s="96" t="s">
         <v>504</v>
       </c>
-      <c r="Q72" s="97" t="s">
+      <c r="Q72" s="96" t="s">
         <v>507</v>
       </c>
-      <c r="R72" s="97" t="s">
+      <c r="R72" s="96" t="s">
         <v>512</v>
       </c>
     </row>
@@ -48354,16 +48824,16 @@
       <c r="A73" s="87" t="s">
         <v>150</v>
       </c>
-      <c r="B73" s="99" t="s">
+      <c r="B73" s="98" t="s">
         <v>490</v>
       </c>
-      <c r="C73" s="99" t="s">
+      <c r="C73" s="98" t="s">
         <v>490</v>
       </c>
-      <c r="D73" s="99" t="s">
+      <c r="D73" s="98" t="s">
         <v>490</v>
       </c>
-      <c r="E73" s="99" t="s">
+      <c r="E73" s="98" t="s">
         <v>490</v>
       </c>
       <c r="F73" s="84">
@@ -48372,34 +48842,34 @@
       <c r="G73" s="84">
         <v>72</v>
       </c>
-      <c r="H73" s="98" t="s">
+      <c r="H73" s="97" t="s">
         <v>528</v>
       </c>
       <c r="I73" s="86">
         <v>1</v>
       </c>
-      <c r="J73" s="99" t="s">
+      <c r="J73" s="98" t="s">
         <v>490</v>
       </c>
-      <c r="K73" s="99" t="s">
+      <c r="K73" s="98" t="s">
         <v>490</v>
       </c>
       <c r="L73" s="84">
         <v>1</v>
       </c>
-      <c r="M73" s="94">
+      <c r="M73" s="93">
         <v>13</v>
       </c>
-      <c r="N73" s="95" t="s">
+      <c r="N73" s="94" t="s">
         <v>456</v>
       </c>
-      <c r="P73" s="97" t="s">
+      <c r="P73" s="96" t="s">
         <v>473</v>
       </c>
-      <c r="Q73" s="97" t="s">
+      <c r="Q73" s="96" t="s">
         <v>479</v>
       </c>
-      <c r="R73" s="97" t="s">
+      <c r="R73" s="96" t="s">
         <v>491</v>
       </c>
     </row>
@@ -48407,16 +48877,16 @@
       <c r="A74" s="87" t="s">
         <v>151</v>
       </c>
-      <c r="B74" s="97" t="s">
+      <c r="B74" s="96" t="s">
         <v>505</v>
       </c>
-      <c r="C74" s="97" t="s">
+      <c r="C74" s="96" t="s">
         <v>505</v>
       </c>
-      <c r="D74" s="97" t="s">
+      <c r="D74" s="96" t="s">
         <v>505</v>
       </c>
-      <c r="E74" s="97" t="s">
+      <c r="E74" s="96" t="s">
         <v>505</v>
       </c>
       <c r="F74" s="84">
@@ -48425,34 +48895,34 @@
       <c r="G74" s="84">
         <v>73</v>
       </c>
-      <c r="H74" s="98" t="s">
+      <c r="H74" s="97" t="s">
         <v>531</v>
       </c>
       <c r="I74" s="86">
         <v>1</v>
       </c>
-      <c r="J74" s="97" t="s">
+      <c r="J74" s="96" t="s">
         <v>505</v>
       </c>
-      <c r="K74" s="97" t="s">
+      <c r="K74" s="96" t="s">
         <v>505</v>
       </c>
       <c r="L74" s="84">
         <v>1</v>
       </c>
-      <c r="M74" s="94">
+      <c r="M74" s="93">
         <v>14</v>
       </c>
-      <c r="N74" s="95" t="s">
+      <c r="N74" s="94" t="s">
         <v>457</v>
       </c>
-      <c r="P74" s="97" t="s">
+      <c r="P74" s="96" t="s">
         <v>504</v>
       </c>
-      <c r="Q74" s="97" t="s">
+      <c r="Q74" s="96" t="s">
         <v>507</v>
       </c>
-      <c r="R74" s="97" t="s">
+      <c r="R74" s="96" t="s">
         <v>506</v>
       </c>
     </row>
@@ -48460,16 +48930,16 @@
       <c r="A75" s="87" t="s">
         <v>152</v>
       </c>
-      <c r="B75" s="97" t="s">
+      <c r="B75" s="96" t="s">
         <v>474</v>
       </c>
-      <c r="C75" s="97" t="s">
+      <c r="C75" s="96" t="s">
         <v>474</v>
       </c>
-      <c r="D75" s="97" t="s">
+      <c r="D75" s="96" t="s">
         <v>474</v>
       </c>
-      <c r="E75" s="97" t="s">
+      <c r="E75" s="96" t="s">
         <v>474</v>
       </c>
       <c r="F75" s="84">
@@ -48478,34 +48948,34 @@
       <c r="G75" s="84">
         <v>74</v>
       </c>
-      <c r="H75" s="98" t="s">
+      <c r="H75" s="97" t="s">
         <v>533</v>
       </c>
       <c r="I75" s="86">
         <v>1</v>
       </c>
-      <c r="J75" s="97" t="s">
+      <c r="J75" s="96" t="s">
         <v>474</v>
       </c>
-      <c r="K75" s="97" t="s">
+      <c r="K75" s="96" t="s">
         <v>474</v>
       </c>
       <c r="L75" s="84">
         <v>1</v>
       </c>
-      <c r="M75" s="94">
+      <c r="M75" s="93">
         <v>15</v>
       </c>
-      <c r="N75" s="95" t="s">
+      <c r="N75" s="94" t="s">
         <v>458</v>
       </c>
-      <c r="P75" s="97" t="s">
+      <c r="P75" s="96" t="s">
         <v>473</v>
       </c>
-      <c r="Q75" s="97" t="s">
+      <c r="Q75" s="96" t="s">
         <v>479</v>
       </c>
-      <c r="R75" s="97" t="s">
+      <c r="R75" s="96" t="s">
         <v>478</v>
       </c>
     </row>
@@ -48513,16 +48983,16 @@
       <c r="A76" s="87" t="s">
         <v>153</v>
       </c>
-      <c r="B76" s="97" t="s">
+      <c r="B76" s="96" t="s">
         <v>496</v>
       </c>
-      <c r="C76" s="97" t="s">
+      <c r="C76" s="96" t="s">
         <v>496</v>
       </c>
-      <c r="D76" s="97" t="s">
+      <c r="D76" s="96" t="s">
         <v>496</v>
       </c>
-      <c r="E76" s="97" t="s">
+      <c r="E76" s="96" t="s">
         <v>496</v>
       </c>
       <c r="F76" s="84">
@@ -48531,34 +49001,34 @@
       <c r="G76" s="84">
         <v>75</v>
       </c>
-      <c r="H76" s="98" t="s">
+      <c r="H76" s="97" t="s">
         <v>535</v>
       </c>
       <c r="I76" s="86">
         <v>1</v>
       </c>
-      <c r="J76" s="97" t="s">
+      <c r="J76" s="96" t="s">
         <v>496</v>
       </c>
-      <c r="K76" s="97" t="s">
+      <c r="K76" s="96" t="s">
         <v>496</v>
       </c>
       <c r="L76" s="84">
         <v>1</v>
       </c>
-      <c r="M76" s="94">
+      <c r="M76" s="93">
         <v>16</v>
       </c>
-      <c r="N76" s="95" t="s">
+      <c r="N76" s="94" t="s">
         <v>459</v>
       </c>
-      <c r="P76" s="97" t="s">
+      <c r="P76" s="96" t="s">
         <v>495</v>
       </c>
-      <c r="Q76" s="97" t="s">
+      <c r="Q76" s="96" t="s">
         <v>498</v>
       </c>
-      <c r="R76" s="97" t="s">
+      <c r="R76" s="96" t="s">
         <v>497</v>
       </c>
     </row>
@@ -48566,16 +49036,16 @@
       <c r="A77" s="87" t="s">
         <v>154</v>
       </c>
-      <c r="B77" s="97" t="s">
+      <c r="B77" s="96" t="s">
         <v>518</v>
       </c>
-      <c r="C77" s="97" t="s">
+      <c r="C77" s="96" t="s">
         <v>518</v>
       </c>
-      <c r="D77" s="97" t="s">
+      <c r="D77" s="96" t="s">
         <v>518</v>
       </c>
-      <c r="E77" s="97" t="s">
+      <c r="E77" s="96" t="s">
         <v>518</v>
       </c>
       <c r="F77" s="84">
@@ -48584,34 +49054,34 @@
       <c r="G77" s="84">
         <v>76</v>
       </c>
-      <c r="H77" s="98" t="s">
+      <c r="H77" s="97" t="s">
         <v>537</v>
       </c>
       <c r="I77" s="86">
         <v>1</v>
       </c>
-      <c r="J77" s="97" t="s">
+      <c r="J77" s="96" t="s">
         <v>518</v>
       </c>
-      <c r="K77" s="97" t="s">
+      <c r="K77" s="96" t="s">
         <v>518</v>
       </c>
       <c r="L77" s="84">
         <v>1</v>
       </c>
-      <c r="M77" s="94">
+      <c r="M77" s="93">
         <v>17</v>
       </c>
-      <c r="N77" s="95" t="s">
+      <c r="N77" s="94" t="s">
         <v>460</v>
       </c>
-      <c r="P77" s="97" t="s">
+      <c r="P77" s="96" t="s">
         <v>473</v>
       </c>
-      <c r="Q77" s="97" t="s">
+      <c r="Q77" s="96" t="s">
         <v>479</v>
       </c>
-      <c r="R77" s="97" t="s">
+      <c r="R77" s="96" t="s">
         <v>519</v>
       </c>
     </row>
@@ -48619,16 +49089,16 @@
       <c r="A78" s="87" t="s">
         <v>155</v>
       </c>
-      <c r="B78" s="97" t="s">
+      <c r="B78" s="96" t="s">
         <v>484</v>
       </c>
-      <c r="C78" s="97" t="s">
+      <c r="C78" s="96" t="s">
         <v>484</v>
       </c>
-      <c r="D78" s="97" t="s">
+      <c r="D78" s="96" t="s">
         <v>484</v>
       </c>
-      <c r="E78" s="97" t="s">
+      <c r="E78" s="96" t="s">
         <v>484</v>
       </c>
       <c r="F78" s="84">
@@ -48637,34 +49107,34 @@
       <c r="G78" s="84">
         <v>77</v>
       </c>
-      <c r="H78" s="98" t="s">
+      <c r="H78" s="97" t="s">
         <v>539</v>
       </c>
       <c r="I78" s="86">
         <v>1</v>
       </c>
-      <c r="J78" s="97" t="s">
+      <c r="J78" s="96" t="s">
         <v>484</v>
       </c>
-      <c r="K78" s="97" t="s">
+      <c r="K78" s="96" t="s">
         <v>484</v>
       </c>
       <c r="L78" s="84">
         <v>1</v>
       </c>
-      <c r="M78" s="94">
+      <c r="M78" s="93">
         <v>18</v>
       </c>
-      <c r="N78" s="95" t="s">
+      <c r="N78" s="94" t="s">
         <v>461</v>
       </c>
-      <c r="P78" s="97" t="s">
+      <c r="P78" s="96" t="s">
         <v>483</v>
       </c>
-      <c r="Q78" s="97" t="s">
+      <c r="Q78" s="96" t="s">
         <v>486</v>
       </c>
-      <c r="R78" s="97" t="s">
+      <c r="R78" s="96" t="s">
         <v>485</v>
       </c>
     </row>
@@ -48672,16 +49142,16 @@
       <c r="A79" s="87" t="s">
         <v>156</v>
       </c>
-      <c r="B79" s="99" t="s">
+      <c r="B79" s="98" t="s">
         <v>490</v>
       </c>
-      <c r="C79" s="99" t="s">
+      <c r="C79" s="98" t="s">
         <v>490</v>
       </c>
-      <c r="D79" s="99" t="s">
+      <c r="D79" s="98" t="s">
         <v>490</v>
       </c>
-      <c r="E79" s="99" t="s">
+      <c r="E79" s="98" t="s">
         <v>490</v>
       </c>
       <c r="F79" s="84">
@@ -48690,34 +49160,34 @@
       <c r="G79" s="84">
         <v>78</v>
       </c>
-      <c r="H79" s="98" t="s">
+      <c r="H79" s="97" t="s">
         <v>541</v>
       </c>
       <c r="I79" s="86">
         <v>1</v>
       </c>
-      <c r="J79" s="99" t="s">
+      <c r="J79" s="98" t="s">
         <v>490</v>
       </c>
-      <c r="K79" s="99" t="s">
+      <c r="K79" s="98" t="s">
         <v>490</v>
       </c>
       <c r="L79" s="84">
         <v>1</v>
       </c>
-      <c r="M79" s="94">
+      <c r="M79" s="93">
         <v>19</v>
       </c>
-      <c r="N79" s="95" t="s">
+      <c r="N79" s="94" t="s">
         <v>462</v>
       </c>
-      <c r="P79" s="97" t="s">
+      <c r="P79" s="96" t="s">
         <v>473</v>
       </c>
-      <c r="Q79" s="97" t="s">
+      <c r="Q79" s="96" t="s">
         <v>479</v>
       </c>
-      <c r="R79" s="97" t="s">
+      <c r="R79" s="96" t="s">
         <v>491</v>
       </c>
     </row>
@@ -48725,16 +49195,16 @@
       <c r="A80" s="87" t="s">
         <v>157</v>
       </c>
-      <c r="B80" s="97" t="s">
+      <c r="B80" s="96" t="s">
         <v>511</v>
       </c>
-      <c r="C80" s="97" t="s">
+      <c r="C80" s="96" t="s">
         <v>511</v>
       </c>
-      <c r="D80" s="97" t="s">
+      <c r="D80" s="96" t="s">
         <v>511</v>
       </c>
-      <c r="E80" s="97" t="s">
+      <c r="E80" s="96" t="s">
         <v>511</v>
       </c>
       <c r="F80" s="84">
@@ -48743,31 +49213,31 @@
       <c r="G80" s="84">
         <v>79</v>
       </c>
-      <c r="H80" s="98" t="s">
+      <c r="H80" s="97" t="s">
         <v>543</v>
       </c>
       <c r="I80" s="86">
         <v>1</v>
       </c>
-      <c r="J80" s="97" t="s">
+      <c r="J80" s="96" t="s">
         <v>511</v>
       </c>
-      <c r="K80" s="97" t="s">
+      <c r="K80" s="96" t="s">
         <v>511</v>
       </c>
-      <c r="M80" s="94">
+      <c r="M80" s="93">
         <v>20</v>
       </c>
-      <c r="N80" s="95" t="s">
+      <c r="N80" s="94" t="s">
         <v>463</v>
       </c>
-      <c r="P80" s="97" t="s">
+      <c r="P80" s="96" t="s">
         <v>504</v>
       </c>
-      <c r="Q80" s="97" t="s">
+      <c r="Q80" s="96" t="s">
         <v>507</v>
       </c>
-      <c r="R80" s="97" t="s">
+      <c r="R80" s="96" t="s">
         <v>512</v>
       </c>
     </row>
@@ -48775,16 +49245,16 @@
       <c r="A81" s="87" t="s">
         <v>158</v>
       </c>
-      <c r="B81" s="97" t="s">
+      <c r="B81" s="96" t="s">
         <v>518</v>
       </c>
-      <c r="C81" s="97" t="s">
+      <c r="C81" s="96" t="s">
         <v>518</v>
       </c>
-      <c r="D81" s="97" t="s">
+      <c r="D81" s="96" t="s">
         <v>518</v>
       </c>
-      <c r="E81" s="97" t="s">
+      <c r="E81" s="96" t="s">
         <v>518</v>
       </c>
       <c r="F81" s="84">
@@ -48793,34 +49263,34 @@
       <c r="G81" s="84">
         <v>80</v>
       </c>
-      <c r="H81" s="98" t="s">
+      <c r="H81" s="97" t="s">
         <v>545</v>
       </c>
       <c r="I81" s="86">
         <v>1</v>
       </c>
-      <c r="J81" s="97" t="s">
+      <c r="J81" s="96" t="s">
         <v>518</v>
       </c>
-      <c r="K81" s="97" t="s">
+      <c r="K81" s="96" t="s">
         <v>518</v>
       </c>
       <c r="L81" s="84">
         <v>1</v>
       </c>
-      <c r="M81" s="94">
+      <c r="M81" s="93">
         <v>21</v>
       </c>
-      <c r="N81" s="95" t="s">
+      <c r="N81" s="94" t="s">
         <v>464</v>
       </c>
-      <c r="P81" s="97" t="s">
+      <c r="P81" s="96" t="s">
         <v>473</v>
       </c>
-      <c r="Q81" s="97" t="s">
+      <c r="Q81" s="96" t="s">
         <v>479</v>
       </c>
-      <c r="R81" s="97" t="s">
+      <c r="R81" s="96" t="s">
         <v>519</v>
       </c>
     </row>
@@ -48828,16 +49298,16 @@
       <c r="A82" s="87" t="s">
         <v>159</v>
       </c>
-      <c r="B82" s="97" t="s">
+      <c r="B82" s="96" t="s">
         <v>505</v>
       </c>
-      <c r="C82" s="97" t="s">
+      <c r="C82" s="96" t="s">
         <v>505</v>
       </c>
-      <c r="D82" s="97" t="s">
+      <c r="D82" s="96" t="s">
         <v>505</v>
       </c>
-      <c r="E82" s="97" t="s">
+      <c r="E82" s="96" t="s">
         <v>505</v>
       </c>
       <c r="F82" s="84">
@@ -48846,34 +49316,34 @@
       <c r="G82" s="84">
         <v>81</v>
       </c>
-      <c r="H82" s="98" t="s">
+      <c r="H82" s="97" t="s">
         <v>547</v>
       </c>
       <c r="I82" s="86">
         <v>1</v>
       </c>
-      <c r="J82" s="97" t="s">
+      <c r="J82" s="96" t="s">
         <v>505</v>
       </c>
-      <c r="K82" s="97" t="s">
+      <c r="K82" s="96" t="s">
         <v>505</v>
       </c>
       <c r="L82" s="84">
         <v>1</v>
       </c>
-      <c r="M82" s="96">
+      <c r="M82" s="95">
         <v>22</v>
       </c>
-      <c r="N82" s="95" t="s">
+      <c r="N82" s="94" t="s">
         <v>465</v>
       </c>
-      <c r="P82" s="97" t="s">
+      <c r="P82" s="96" t="s">
         <v>504</v>
       </c>
-      <c r="Q82" s="97" t="s">
+      <c r="Q82" s="96" t="s">
         <v>507</v>
       </c>
-      <c r="R82" s="97" t="s">
+      <c r="R82" s="96" t="s">
         <v>506</v>
       </c>
     </row>
@@ -48881,16 +49351,16 @@
       <c r="A83" s="87" t="s">
         <v>160</v>
       </c>
-      <c r="B83" s="99" t="s">
+      <c r="B83" s="98" t="s">
         <v>490</v>
       </c>
-      <c r="C83" s="99" t="s">
+      <c r="C83" s="98" t="s">
         <v>490</v>
       </c>
-      <c r="D83" s="99" t="s">
+      <c r="D83" s="98" t="s">
         <v>490</v>
       </c>
-      <c r="E83" s="99" t="s">
+      <c r="E83" s="98" t="s">
         <v>490</v>
       </c>
       <c r="F83" s="84">
@@ -48899,34 +49369,34 @@
       <c r="G83" s="84">
         <v>82</v>
       </c>
-      <c r="H83" s="98" t="s">
+      <c r="H83" s="97" t="s">
         <v>549</v>
       </c>
       <c r="I83" s="86">
         <v>1</v>
       </c>
-      <c r="J83" s="99" t="s">
+      <c r="J83" s="98" t="s">
         <v>490</v>
       </c>
-      <c r="K83" s="99" t="s">
+      <c r="K83" s="98" t="s">
         <v>490</v>
       </c>
       <c r="L83" s="84">
         <v>1</v>
       </c>
-      <c r="M83" s="94">
+      <c r="M83" s="93">
         <v>23</v>
       </c>
-      <c r="N83" s="95" t="s">
+      <c r="N83" s="94" t="s">
         <v>466</v>
       </c>
-      <c r="P83" s="97" t="s">
+      <c r="P83" s="96" t="s">
         <v>473</v>
       </c>
-      <c r="Q83" s="97" t="s">
+      <c r="Q83" s="96" t="s">
         <v>479</v>
       </c>
-      <c r="R83" s="97" t="s">
+      <c r="R83" s="96" t="s">
         <v>491</v>
       </c>
     </row>
@@ -48934,16 +49404,16 @@
       <c r="A84" s="87" t="s">
         <v>161</v>
       </c>
-      <c r="B84" s="97" t="s">
+      <c r="B84" s="96" t="s">
         <v>496</v>
       </c>
-      <c r="C84" s="97" t="s">
+      <c r="C84" s="96" t="s">
         <v>496</v>
       </c>
-      <c r="D84" s="97" t="s">
+      <c r="D84" s="96" t="s">
         <v>496</v>
       </c>
-      <c r="E84" s="97" t="s">
+      <c r="E84" s="96" t="s">
         <v>496</v>
       </c>
       <c r="F84" s="84">
@@ -48952,34 +49422,34 @@
       <c r="G84" s="84">
         <v>83</v>
       </c>
-      <c r="H84" s="98" t="s">
+      <c r="H84" s="97" t="s">
         <v>552</v>
       </c>
       <c r="I84" s="86">
         <v>1</v>
       </c>
-      <c r="J84" s="97" t="s">
+      <c r="J84" s="96" t="s">
         <v>496</v>
       </c>
-      <c r="K84" s="97" t="s">
+      <c r="K84" s="96" t="s">
         <v>496</v>
       </c>
       <c r="L84" s="84">
         <v>1</v>
       </c>
-      <c r="M84" s="94">
+      <c r="M84" s="93">
         <v>24</v>
       </c>
-      <c r="N84" s="95" t="s">
+      <c r="N84" s="94" t="s">
         <v>467</v>
       </c>
-      <c r="P84" s="97" t="s">
+      <c r="P84" s="96" t="s">
         <v>495</v>
       </c>
-      <c r="Q84" s="97" t="s">
+      <c r="Q84" s="96" t="s">
         <v>498</v>
       </c>
-      <c r="R84" s="97" t="s">
+      <c r="R84" s="96" t="s">
         <v>497</v>
       </c>
     </row>
@@ -48987,16 +49457,16 @@
       <c r="A85" s="87" t="s">
         <v>162</v>
       </c>
-      <c r="B85" s="97" t="s">
+      <c r="B85" s="96" t="s">
         <v>518</v>
       </c>
-      <c r="C85" s="97" t="s">
+      <c r="C85" s="96" t="s">
         <v>518</v>
       </c>
-      <c r="D85" s="97" t="s">
+      <c r="D85" s="96" t="s">
         <v>518</v>
       </c>
-      <c r="E85" s="97" t="s">
+      <c r="E85" s="96" t="s">
         <v>518</v>
       </c>
       <c r="F85" s="84">
@@ -49005,34 +49475,34 @@
       <c r="G85" s="84">
         <v>84</v>
       </c>
-      <c r="H85" s="98" t="s">
+      <c r="H85" s="97" t="s">
         <v>554</v>
       </c>
       <c r="I85" s="86">
         <v>1</v>
       </c>
-      <c r="J85" s="97" t="s">
+      <c r="J85" s="96" t="s">
         <v>518</v>
       </c>
-      <c r="K85" s="97" t="s">
+      <c r="K85" s="96" t="s">
         <v>518</v>
       </c>
       <c r="L85" s="84">
         <v>1</v>
       </c>
-      <c r="M85" s="94">
+      <c r="M85" s="93">
         <v>25</v>
       </c>
-      <c r="N85" s="95" t="s">
+      <c r="N85" s="94" t="s">
         <v>468</v>
       </c>
-      <c r="P85" s="97" t="s">
+      <c r="P85" s="96" t="s">
         <v>473</v>
       </c>
-      <c r="Q85" s="97" t="s">
+      <c r="Q85" s="96" t="s">
         <v>479</v>
       </c>
-      <c r="R85" s="97" t="s">
+      <c r="R85" s="96" t="s">
         <v>519</v>
       </c>
     </row>
@@ -49040,16 +49510,16 @@
       <c r="A86" s="87" t="s">
         <v>163</v>
       </c>
-      <c r="B86" s="97" t="s">
+      <c r="B86" s="96" t="s">
         <v>484</v>
       </c>
-      <c r="C86" s="97" t="s">
+      <c r="C86" s="96" t="s">
         <v>484</v>
       </c>
-      <c r="D86" s="97" t="s">
+      <c r="D86" s="96" t="s">
         <v>484</v>
       </c>
-      <c r="E86" s="97" t="s">
+      <c r="E86" s="96" t="s">
         <v>484</v>
       </c>
       <c r="F86" s="84">
@@ -49058,34 +49528,34 @@
       <c r="G86" s="84">
         <v>85</v>
       </c>
-      <c r="H86" s="98" t="s">
+      <c r="H86" s="97" t="s">
         <v>556</v>
       </c>
       <c r="I86" s="86">
         <v>1</v>
       </c>
-      <c r="J86" s="97" t="s">
+      <c r="J86" s="96" t="s">
         <v>484</v>
       </c>
-      <c r="K86" s="97" t="s">
+      <c r="K86" s="96" t="s">
         <v>484</v>
       </c>
       <c r="L86" s="84">
         <v>1</v>
       </c>
-      <c r="M86" s="94">
+      <c r="M86" s="93">
         <v>26</v>
       </c>
-      <c r="N86" s="95" t="s">
+      <c r="N86" s="94" t="s">
         <v>469</v>
       </c>
-      <c r="P86" s="97" t="s">
+      <c r="P86" s="96" t="s">
         <v>483</v>
       </c>
-      <c r="Q86" s="97" t="s">
+      <c r="Q86" s="96" t="s">
         <v>486</v>
       </c>
-      <c r="R86" s="97" t="s">
+      <c r="R86" s="96" t="s">
         <v>485</v>
       </c>
     </row>
@@ -49093,16 +49563,16 @@
       <c r="A87" s="87" t="s">
         <v>164</v>
       </c>
-      <c r="B87" s="99" t="s">
+      <c r="B87" s="98" t="s">
         <v>490</v>
       </c>
-      <c r="C87" s="99" t="s">
+      <c r="C87" s="98" t="s">
         <v>490</v>
       </c>
-      <c r="D87" s="99" t="s">
+      <c r="D87" s="98" t="s">
         <v>490</v>
       </c>
-      <c r="E87" s="99" t="s">
+      <c r="E87" s="98" t="s">
         <v>490</v>
       </c>
       <c r="F87" s="84">
@@ -49111,34 +49581,34 @@
       <c r="G87" s="84">
         <v>86</v>
       </c>
-      <c r="H87" s="98" t="s">
+      <c r="H87" s="97" t="s">
         <v>558</v>
       </c>
       <c r="I87" s="86">
         <v>1</v>
       </c>
-      <c r="J87" s="99" t="s">
+      <c r="J87" s="98" t="s">
         <v>490</v>
       </c>
-      <c r="K87" s="99" t="s">
+      <c r="K87" s="98" t="s">
         <v>490</v>
       </c>
       <c r="L87" s="84">
         <v>1</v>
       </c>
-      <c r="M87" s="94">
+      <c r="M87" s="93">
         <v>27</v>
       </c>
-      <c r="N87" s="95" t="s">
+      <c r="N87" s="94" t="s">
         <v>470</v>
       </c>
-      <c r="P87" s="97" t="s">
+      <c r="P87" s="96" t="s">
         <v>473</v>
       </c>
-      <c r="Q87" s="97" t="s">
+      <c r="Q87" s="96" t="s">
         <v>479</v>
       </c>
-      <c r="R87" s="97" t="s">
+      <c r="R87" s="96" t="s">
         <v>491</v>
       </c>
     </row>
@@ -49146,16 +49616,16 @@
       <c r="A88" s="87" t="s">
         <v>165</v>
       </c>
-      <c r="B88" s="97" t="s">
+      <c r="B88" s="96" t="s">
         <v>511</v>
       </c>
-      <c r="C88" s="97" t="s">
+      <c r="C88" s="96" t="s">
         <v>511</v>
       </c>
-      <c r="D88" s="97" t="s">
+      <c r="D88" s="96" t="s">
         <v>511</v>
       </c>
-      <c r="E88" s="97" t="s">
+      <c r="E88" s="96" t="s">
         <v>511</v>
       </c>
       <c r="F88" s="84">
@@ -49164,34 +49634,34 @@
       <c r="G88" s="84">
         <v>87</v>
       </c>
-      <c r="H88" s="98" t="s">
+      <c r="H88" s="97" t="s">
         <v>560</v>
       </c>
       <c r="I88" s="86">
         <v>1</v>
       </c>
-      <c r="J88" s="97" t="s">
+      <c r="J88" s="96" t="s">
         <v>511</v>
       </c>
-      <c r="K88" s="97" t="s">
+      <c r="K88" s="96" t="s">
         <v>511</v>
       </c>
       <c r="L88" s="84">
         <v>1</v>
       </c>
-      <c r="M88" s="94">
+      <c r="M88" s="93">
         <v>28</v>
       </c>
-      <c r="N88" s="95" t="s">
+      <c r="N88" s="94" t="s">
         <v>471</v>
       </c>
-      <c r="P88" s="97" t="s">
+      <c r="P88" s="96" t="s">
         <v>504</v>
       </c>
-      <c r="Q88" s="97" t="s">
+      <c r="Q88" s="96" t="s">
         <v>507</v>
       </c>
-      <c r="R88" s="97" t="s">
+      <c r="R88" s="96" t="s">
         <v>512</v>
       </c>
     </row>
@@ -49199,16 +49669,16 @@
       <c r="A89" s="87" t="s">
         <v>166</v>
       </c>
-      <c r="B89" s="97" t="s">
+      <c r="B89" s="96" t="s">
         <v>564</v>
       </c>
-      <c r="C89" s="97" t="s">
+      <c r="C89" s="96" t="s">
         <v>564</v>
       </c>
-      <c r="D89" s="97" t="s">
+      <c r="D89" s="96" t="s">
         <v>564</v>
       </c>
-      <c r="E89" s="97" t="s">
+      <c r="E89" s="96" t="s">
         <v>564</v>
       </c>
       <c r="F89" s="84">
@@ -49217,51 +49687,51 @@
       <c r="G89" s="84">
         <v>88</v>
       </c>
-      <c r="H89" s="98" t="s">
+      <c r="H89" s="97" t="s">
         <v>562</v>
       </c>
       <c r="I89" s="86">
         <v>1</v>
       </c>
-      <c r="J89" s="97" t="s">
+      <c r="J89" s="96" t="s">
         <v>564</v>
       </c>
-      <c r="K89" s="97" t="s">
+      <c r="K89" s="96" t="s">
         <v>564</v>
       </c>
       <c r="L89" s="84">
         <v>1</v>
       </c>
-      <c r="M89" s="94">
-        <v>1</v>
-      </c>
-      <c r="N89" s="95" t="s">
+      <c r="M89" s="93">
+        <v>1</v>
+      </c>
+      <c r="N89" s="94" t="s">
         <v>563</v>
       </c>
-      <c r="P89" s="97" t="s">
+      <c r="P89" s="96" t="s">
         <v>504</v>
       </c>
-      <c r="Q89" s="97" t="s">
+      <c r="Q89" s="96" t="s">
         <v>507</v>
       </c>
-      <c r="R89" s="97" t="s">
+      <c r="R89" s="96" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="90" spans="1:18" ht="17">
+    <row r="90" spans="1:18" ht="29">
       <c r="A90" s="87" t="s">
         <v>167</v>
       </c>
-      <c r="B90" s="97" t="s">
+      <c r="B90" s="96" t="s">
         <v>573</v>
       </c>
-      <c r="C90" s="97" t="s">
+      <c r="C90" s="96" t="s">
         <v>573</v>
       </c>
-      <c r="D90" s="97" t="s">
+      <c r="D90" s="96" t="s">
         <v>573</v>
       </c>
-      <c r="E90" s="97" t="s">
+      <c r="E90" s="96" t="s">
         <v>573</v>
       </c>
       <c r="F90" s="84">
@@ -49270,34 +49740,34 @@
       <c r="G90" s="84">
         <v>89</v>
       </c>
-      <c r="H90" s="98" t="s">
+      <c r="H90" s="97" t="s">
         <v>570</v>
       </c>
       <c r="I90" s="86">
         <v>1</v>
       </c>
-      <c r="J90" s="97" t="s">
+      <c r="J90" s="96" t="s">
         <v>573</v>
       </c>
-      <c r="K90" s="97" t="s">
+      <c r="K90" s="96" t="s">
         <v>573</v>
       </c>
       <c r="L90" s="84">
         <v>1</v>
       </c>
-      <c r="M90" s="94">
-        <v>2</v>
-      </c>
-      <c r="N90" s="95" t="s">
+      <c r="M90" s="93">
+        <v>2</v>
+      </c>
+      <c r="N90" s="94" t="s">
         <v>571</v>
       </c>
-      <c r="P90" s="97" t="s">
+      <c r="P90" s="96" t="s">
         <v>572</v>
       </c>
-      <c r="Q90" s="97" t="s">
+      <c r="Q90" s="96" t="s">
         <v>575</v>
       </c>
-      <c r="R90" s="97" t="s">
+      <c r="R90" s="96" t="s">
         <v>574</v>
       </c>
     </row>
@@ -49305,16 +49775,16 @@
       <c r="A91" s="87" t="s">
         <v>168</v>
       </c>
-      <c r="B91" s="97" t="s">
+      <c r="B91" s="96" t="s">
         <v>580</v>
       </c>
-      <c r="C91" s="97" t="s">
+      <c r="C91" s="96" t="s">
         <v>580</v>
       </c>
-      <c r="D91" s="97" t="s">
+      <c r="D91" s="96" t="s">
         <v>580</v>
       </c>
-      <c r="E91" s="97" t="s">
+      <c r="E91" s="96" t="s">
         <v>580</v>
       </c>
       <c r="F91" s="84">
@@ -49323,51 +49793,51 @@
       <c r="G91" s="84">
         <v>90</v>
       </c>
-      <c r="H91" s="98" t="s">
+      <c r="H91" s="97" t="s">
         <v>578</v>
       </c>
       <c r="I91" s="86">
         <v>1</v>
       </c>
-      <c r="J91" s="97" t="s">
+      <c r="J91" s="96" t="s">
         <v>580</v>
       </c>
-      <c r="K91" s="97" t="s">
+      <c r="K91" s="96" t="s">
         <v>580</v>
       </c>
       <c r="L91" s="84">
         <v>1</v>
       </c>
-      <c r="M91" s="94">
-        <v>3</v>
-      </c>
-      <c r="N91" s="95" t="s">
+      <c r="M91" s="93">
+        <v>3</v>
+      </c>
+      <c r="N91" s="94" t="s">
         <v>579</v>
       </c>
-      <c r="P91" s="97" t="s">
+      <c r="P91" s="96" t="s">
         <v>483</v>
       </c>
-      <c r="Q91" s="97" t="s">
+      <c r="Q91" s="96" t="s">
         <v>486</v>
       </c>
-      <c r="R91" s="97" t="s">
+      <c r="R91" s="96" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="92" spans="1:18" ht="17">
+    <row r="92" spans="1:18" ht="29">
       <c r="A92" s="87" t="s">
         <v>169</v>
       </c>
-      <c r="B92" s="97" t="s">
+      <c r="B92" s="96" t="s">
         <v>586</v>
       </c>
-      <c r="C92" s="97" t="s">
+      <c r="C92" s="96" t="s">
         <v>586</v>
       </c>
-      <c r="D92" s="97" t="s">
+      <c r="D92" s="96" t="s">
         <v>586</v>
       </c>
-      <c r="E92" s="97" t="s">
+      <c r="E92" s="96" t="s">
         <v>586</v>
       </c>
       <c r="F92" s="84">
@@ -49376,87 +49846,87 @@
       <c r="G92" s="84">
         <v>91</v>
       </c>
-      <c r="H92" s="98" t="s">
+      <c r="H92" s="97" t="s">
         <v>584</v>
       </c>
       <c r="I92" s="86">
         <v>1</v>
       </c>
-      <c r="J92" s="97" t="s">
+      <c r="J92" s="96" t="s">
         <v>586</v>
       </c>
-      <c r="K92" s="97" t="s">
+      <c r="K92" s="96" t="s">
         <v>586</v>
       </c>
       <c r="L92" s="84">
         <v>1</v>
       </c>
-      <c r="M92" s="94">
-        <v>4</v>
-      </c>
-      <c r="N92" s="95" t="s">
+      <c r="M92" s="93">
+        <v>4</v>
+      </c>
+      <c r="N92" s="94" t="s">
         <v>585</v>
       </c>
-      <c r="P92" s="97" t="s">
+      <c r="P92" s="96" t="s">
         <v>572</v>
       </c>
-      <c r="Q92" s="97" t="s">
+      <c r="Q92" s="96" t="s">
         <v>575</v>
       </c>
-      <c r="R92" s="97" t="s">
+      <c r="R92" s="96" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="93" spans="1:18" s="102" customFormat="1" ht="17">
-      <c r="A93" s="100" t="s">
+    <row r="93" spans="1:18" s="101" customFormat="1" ht="17">
+      <c r="A93" s="99" t="s">
         <v>170</v>
       </c>
-      <c r="B93" s="101" t="s">
+      <c r="B93" s="100" t="s">
         <v>592</v>
       </c>
-      <c r="C93" s="101" t="s">
+      <c r="C93" s="100" t="s">
         <v>592</v>
       </c>
-      <c r="D93" s="101" t="s">
+      <c r="D93" s="100" t="s">
         <v>592</v>
       </c>
-      <c r="E93" s="101" t="s">
+      <c r="E93" s="100" t="s">
         <v>592</v>
       </c>
-      <c r="F93" s="102">
-        <v>0</v>
-      </c>
-      <c r="G93" s="102">
+      <c r="F93" s="101">
+        <v>0</v>
+      </c>
+      <c r="G93" s="101">
         <v>92</v>
       </c>
-      <c r="H93" s="103" t="s">
+      <c r="H93" s="102" t="s">
         <v>590</v>
       </c>
-      <c r="I93" s="104">
-        <v>1</v>
-      </c>
-      <c r="J93" s="101" t="s">
+      <c r="I93" s="103">
+        <v>1</v>
+      </c>
+      <c r="J93" s="100" t="s">
         <v>592</v>
       </c>
-      <c r="K93" s="101" t="s">
+      <c r="K93" s="100" t="s">
         <v>592</v>
       </c>
-      <c r="L93" s="102">
-        <v>0</v>
-      </c>
-      <c r="M93" s="105">
-        <v>5</v>
-      </c>
-      <c r="N93" s="106" t="s">
+      <c r="L93" s="101">
+        <v>0</v>
+      </c>
+      <c r="M93" s="104">
+        <v>5</v>
+      </c>
+      <c r="N93" s="105" t="s">
         <v>591</v>
       </c>
-      <c r="P93" s="101" t="s">
+      <c r="P93" s="100" t="s">
         <v>483</v>
       </c>
-      <c r="Q93" s="101" t="s">
+      <c r="Q93" s="100" t="s">
         <v>486</v>
       </c>
-      <c r="R93" s="101" t="s">
+      <c r="R93" s="100" t="s">
         <v>593</v>
       </c>
     </row>
@@ -49464,16 +49934,16 @@
       <c r="A94" s="87" t="s">
         <v>171</v>
       </c>
-      <c r="B94" s="97" t="s">
+      <c r="B94" s="96" t="s">
         <v>598</v>
       </c>
-      <c r="C94" s="97" t="s">
+      <c r="C94" s="96" t="s">
         <v>598</v>
       </c>
-      <c r="D94" s="97" t="s">
+      <c r="D94" s="96" t="s">
         <v>598</v>
       </c>
-      <c r="E94" s="97" t="s">
+      <c r="E94" s="96" t="s">
         <v>598</v>
       </c>
       <c r="F94" s="84">
@@ -49482,34 +49952,34 @@
       <c r="G94" s="84">
         <v>93</v>
       </c>
-      <c r="H94" s="98" t="s">
+      <c r="H94" s="97" t="s">
         <v>596</v>
       </c>
       <c r="I94" s="86">
         <v>1</v>
       </c>
-      <c r="J94" s="97" t="s">
+      <c r="J94" s="96" t="s">
         <v>598</v>
       </c>
-      <c r="K94" s="97" t="s">
+      <c r="K94" s="96" t="s">
         <v>598</v>
       </c>
       <c r="L94" s="84">
         <v>1</v>
       </c>
-      <c r="M94" s="94">
+      <c r="M94" s="93">
         <v>6</v>
       </c>
-      <c r="N94" s="95" t="s">
+      <c r="N94" s="94" t="s">
         <v>597</v>
       </c>
-      <c r="P94" s="97" t="s">
+      <c r="P94" s="96" t="s">
         <v>504</v>
       </c>
-      <c r="Q94" s="97" t="s">
+      <c r="Q94" s="96" t="s">
         <v>507</v>
       </c>
-      <c r="R94" s="97" t="s">
+      <c r="R94" s="96" t="s">
         <v>599</v>
       </c>
     </row>
@@ -49517,16 +49987,16 @@
       <c r="A95" s="87" t="s">
         <v>172</v>
       </c>
-      <c r="B95" s="97" t="s">
+      <c r="B95" s="96" t="s">
         <v>580</v>
       </c>
-      <c r="C95" s="97" t="s">
+      <c r="C95" s="96" t="s">
         <v>580</v>
       </c>
-      <c r="D95" s="97" t="s">
+      <c r="D95" s="96" t="s">
         <v>580</v>
       </c>
-      <c r="E95" s="97" t="s">
+      <c r="E95" s="96" t="s">
         <v>580</v>
       </c>
       <c r="F95" s="84">
@@ -49535,51 +50005,51 @@
       <c r="G95" s="84">
         <v>94</v>
       </c>
-      <c r="H95" s="98" t="s">
+      <c r="H95" s="97" t="s">
         <v>602</v>
       </c>
       <c r="I95" s="86">
         <v>1</v>
       </c>
-      <c r="J95" s="97" t="s">
+      <c r="J95" s="96" t="s">
         <v>580</v>
       </c>
-      <c r="K95" s="97" t="s">
+      <c r="K95" s="96" t="s">
         <v>580</v>
       </c>
       <c r="L95" s="84">
         <v>1</v>
       </c>
-      <c r="M95" s="94">
+      <c r="M95" s="93">
         <v>7</v>
       </c>
-      <c r="N95" s="95" t="s">
+      <c r="N95" s="94" t="s">
         <v>603</v>
       </c>
-      <c r="P95" s="97" t="s">
+      <c r="P95" s="96" t="s">
         <v>483</v>
       </c>
-      <c r="Q95" s="97" t="s">
+      <c r="Q95" s="96" t="s">
         <v>486</v>
       </c>
-      <c r="R95" s="97" t="s">
+      <c r="R95" s="96" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="96" spans="1:18" ht="17">
+    <row r="96" spans="1:18" ht="29">
       <c r="A96" s="87" t="s">
         <v>173</v>
       </c>
-      <c r="B96" s="97" t="s">
+      <c r="B96" s="96" t="s">
         <v>573</v>
       </c>
-      <c r="C96" s="97" t="s">
+      <c r="C96" s="96" t="s">
         <v>573</v>
       </c>
-      <c r="D96" s="97" t="s">
+      <c r="D96" s="96" t="s">
         <v>573</v>
       </c>
-      <c r="E96" s="97" t="s">
+      <c r="E96" s="96" t="s">
         <v>573</v>
       </c>
       <c r="F96" s="84">
@@ -49588,87 +50058,87 @@
       <c r="G96" s="84">
         <v>95</v>
       </c>
-      <c r="H96" s="98" t="s">
+      <c r="H96" s="97" t="s">
         <v>605</v>
       </c>
       <c r="I96" s="86">
         <v>1</v>
       </c>
-      <c r="J96" s="97" t="s">
+      <c r="J96" s="96" t="s">
         <v>573</v>
       </c>
-      <c r="K96" s="97" t="s">
+      <c r="K96" s="96" t="s">
         <v>573</v>
       </c>
       <c r="L96" s="84">
         <v>1</v>
       </c>
-      <c r="M96" s="94">
+      <c r="M96" s="93">
         <v>8</v>
       </c>
-      <c r="N96" s="95" t="s">
+      <c r="N96" s="94" t="s">
         <v>606</v>
       </c>
-      <c r="P96" s="97" t="s">
+      <c r="P96" s="96" t="s">
         <v>572</v>
       </c>
-      <c r="Q96" s="97" t="s">
+      <c r="Q96" s="96" t="s">
         <v>575</v>
       </c>
-      <c r="R96" s="97" t="s">
+      <c r="R96" s="96" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="97" spans="1:18" s="102" customFormat="1" ht="17">
-      <c r="A97" s="100" t="s">
+    <row r="97" spans="1:18" s="101" customFormat="1" ht="17">
+      <c r="A97" s="99" t="s">
         <v>174</v>
       </c>
-      <c r="B97" s="101" t="s">
+      <c r="B97" s="100" t="s">
         <v>592</v>
       </c>
-      <c r="C97" s="101" t="s">
+      <c r="C97" s="100" t="s">
         <v>592</v>
       </c>
-      <c r="D97" s="101" t="s">
+      <c r="D97" s="100" t="s">
         <v>592</v>
       </c>
-      <c r="E97" s="101" t="s">
+      <c r="E97" s="100" t="s">
         <v>592</v>
       </c>
-      <c r="F97" s="102">
-        <v>1</v>
-      </c>
-      <c r="G97" s="102">
+      <c r="F97" s="101">
+        <v>1</v>
+      </c>
+      <c r="G97" s="101">
         <v>96</v>
       </c>
-      <c r="H97" s="103" t="s">
+      <c r="H97" s="102" t="s">
         <v>608</v>
       </c>
-      <c r="I97" s="104">
-        <v>1</v>
-      </c>
-      <c r="J97" s="101" t="s">
+      <c r="I97" s="103">
+        <v>1</v>
+      </c>
+      <c r="J97" s="100" t="s">
         <v>592</v>
       </c>
-      <c r="K97" s="101" t="s">
+      <c r="K97" s="100" t="s">
         <v>592</v>
       </c>
-      <c r="L97" s="102">
-        <v>1</v>
-      </c>
-      <c r="M97" s="105">
+      <c r="L97" s="101">
+        <v>1</v>
+      </c>
+      <c r="M97" s="104">
         <v>9</v>
       </c>
-      <c r="N97" s="106" t="s">
+      <c r="N97" s="105" t="s">
         <v>609</v>
       </c>
-      <c r="P97" s="101" t="s">
+      <c r="P97" s="100" t="s">
         <v>483</v>
       </c>
-      <c r="Q97" s="101" t="s">
+      <c r="Q97" s="100" t="s">
         <v>486</v>
       </c>
-      <c r="R97" s="101" t="s">
+      <c r="R97" s="100" t="s">
         <v>593</v>
       </c>
     </row>
@@ -49676,16 +50146,16 @@
       <c r="A98" s="87" t="s">
         <v>175</v>
       </c>
-      <c r="B98" s="97" t="s">
+      <c r="B98" s="96" t="s">
         <v>564</v>
       </c>
-      <c r="C98" s="97" t="s">
+      <c r="C98" s="96" t="s">
         <v>564</v>
       </c>
-      <c r="D98" s="97" t="s">
+      <c r="D98" s="96" t="s">
         <v>564</v>
       </c>
-      <c r="E98" s="97" t="s">
+      <c r="E98" s="96" t="s">
         <v>564</v>
       </c>
       <c r="F98" s="84">
@@ -49694,51 +50164,51 @@
       <c r="G98" s="84">
         <v>97</v>
       </c>
-      <c r="H98" s="98" t="s">
+      <c r="H98" s="97" t="s">
         <v>611</v>
       </c>
       <c r="I98" s="86">
         <v>1</v>
       </c>
-      <c r="J98" s="97" t="s">
+      <c r="J98" s="96" t="s">
         <v>564</v>
       </c>
-      <c r="K98" s="97" t="s">
+      <c r="K98" s="96" t="s">
         <v>564</v>
       </c>
       <c r="L98" s="84">
         <v>1</v>
       </c>
-      <c r="M98" s="94">
+      <c r="M98" s="93">
         <v>10</v>
       </c>
-      <c r="N98" s="95" t="s">
+      <c r="N98" s="94" t="s">
         <v>612</v>
       </c>
-      <c r="P98" s="97" t="s">
+      <c r="P98" s="96" t="s">
         <v>504</v>
       </c>
-      <c r="Q98" s="97" t="s">
+      <c r="Q98" s="96" t="s">
         <v>507</v>
       </c>
-      <c r="R98" s="97" t="s">
+      <c r="R98" s="96" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="99" spans="1:18" ht="17">
+    <row r="99" spans="1:18" ht="29">
       <c r="A99" s="87" t="s">
         <v>176</v>
       </c>
-      <c r="B99" s="97" t="s">
+      <c r="B99" s="96" t="s">
         <v>586</v>
       </c>
-      <c r="C99" s="97" t="s">
+      <c r="C99" s="96" t="s">
         <v>586</v>
       </c>
-      <c r="D99" s="97" t="s">
+      <c r="D99" s="96" t="s">
         <v>586</v>
       </c>
-      <c r="E99" s="97" t="s">
+      <c r="E99" s="96" t="s">
         <v>586</v>
       </c>
       <c r="F99" s="84">
@@ -49747,34 +50217,34 @@
       <c r="G99" s="84">
         <v>98</v>
       </c>
-      <c r="H99" s="98" t="s">
+      <c r="H99" s="97" t="s">
         <v>614</v>
       </c>
       <c r="I99" s="86">
         <v>1</v>
       </c>
-      <c r="J99" s="97" t="s">
+      <c r="J99" s="96" t="s">
         <v>586</v>
       </c>
-      <c r="K99" s="97" t="s">
+      <c r="K99" s="96" t="s">
         <v>586</v>
       </c>
       <c r="L99" s="84">
         <v>1</v>
       </c>
-      <c r="M99" s="94">
+      <c r="M99" s="93">
         <v>11</v>
       </c>
-      <c r="N99" s="95" t="s">
+      <c r="N99" s="94" t="s">
         <v>615</v>
       </c>
-      <c r="P99" s="97" t="s">
+      <c r="P99" s="96" t="s">
         <v>572</v>
       </c>
-      <c r="Q99" s="97" t="s">
+      <c r="Q99" s="96" t="s">
         <v>575</v>
       </c>
-      <c r="R99" s="97" t="s">
+      <c r="R99" s="96" t="s">
         <v>587</v>
       </c>
     </row>
@@ -49782,16 +50252,16 @@
       <c r="A100" s="87" t="s">
         <v>177</v>
       </c>
-      <c r="B100" s="97" t="s">
+      <c r="B100" s="96" t="s">
         <v>619</v>
       </c>
-      <c r="C100" s="97" t="s">
+      <c r="C100" s="96" t="s">
         <v>619</v>
       </c>
-      <c r="D100" s="97" t="s">
+      <c r="D100" s="96" t="s">
         <v>619</v>
       </c>
-      <c r="E100" s="97" t="s">
+      <c r="E100" s="96" t="s">
         <v>619</v>
       </c>
       <c r="F100" s="84">
@@ -49800,34 +50270,34 @@
       <c r="G100" s="84">
         <v>99</v>
       </c>
-      <c r="H100" s="98" t="s">
+      <c r="H100" s="97" t="s">
         <v>617</v>
       </c>
       <c r="I100" s="86">
         <v>1</v>
       </c>
-      <c r="J100" s="97" t="s">
+      <c r="J100" s="96" t="s">
         <v>619</v>
       </c>
-      <c r="K100" s="97" t="s">
+      <c r="K100" s="96" t="s">
         <v>619</v>
       </c>
       <c r="L100" s="84">
         <v>1</v>
       </c>
-      <c r="M100" s="94">
+      <c r="M100" s="93">
         <v>12</v>
       </c>
-      <c r="N100" s="95" t="s">
+      <c r="N100" s="94" t="s">
         <v>618</v>
       </c>
-      <c r="P100" s="97" t="s">
+      <c r="P100" s="96" t="s">
         <v>483</v>
       </c>
-      <c r="Q100" s="97" t="s">
+      <c r="Q100" s="96" t="s">
         <v>486</v>
       </c>
-      <c r="R100" s="97" t="s">
+      <c r="R100" s="96" t="s">
         <v>620</v>
       </c>
     </row>
@@ -49835,16 +50305,16 @@
       <c r="A101" s="87" t="s">
         <v>178</v>
       </c>
-      <c r="B101" s="97" t="s">
+      <c r="B101" s="96" t="s">
         <v>598</v>
       </c>
-      <c r="C101" s="97" t="s">
+      <c r="C101" s="96" t="s">
         <v>598</v>
       </c>
-      <c r="D101" s="97" t="s">
+      <c r="D101" s="96" t="s">
         <v>598</v>
       </c>
-      <c r="E101" s="97" t="s">
+      <c r="E101" s="96" t="s">
         <v>598</v>
       </c>
       <c r="F101" s="84">
@@ -49853,51 +50323,51 @@
       <c r="G101" s="84">
         <v>100</v>
       </c>
-      <c r="H101" s="98" t="s">
+      <c r="H101" s="97" t="s">
         <v>623</v>
       </c>
       <c r="I101" s="86">
         <v>1</v>
       </c>
-      <c r="J101" s="97" t="s">
+      <c r="J101" s="96" t="s">
         <v>598</v>
       </c>
-      <c r="K101" s="97" t="s">
+      <c r="K101" s="96" t="s">
         <v>598</v>
       </c>
       <c r="L101" s="84">
         <v>1</v>
       </c>
-      <c r="M101" s="94">
+      <c r="M101" s="93">
         <v>13</v>
       </c>
-      <c r="N101" s="95" t="s">
+      <c r="N101" s="94" t="s">
         <v>624</v>
       </c>
-      <c r="P101" s="97" t="s">
+      <c r="P101" s="96" t="s">
         <v>504</v>
       </c>
-      <c r="Q101" s="97" t="s">
+      <c r="Q101" s="96" t="s">
         <v>507</v>
       </c>
-      <c r="R101" s="97" t="s">
+      <c r="R101" s="96" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="102" spans="1:18" ht="17">
+    <row r="102" spans="1:18" ht="29">
       <c r="A102" s="87" t="s">
         <v>179</v>
       </c>
-      <c r="B102" s="97" t="s">
+      <c r="B102" s="96" t="s">
         <v>573</v>
       </c>
-      <c r="C102" s="97" t="s">
+      <c r="C102" s="96" t="s">
         <v>573</v>
       </c>
-      <c r="D102" s="97" t="s">
+      <c r="D102" s="96" t="s">
         <v>573</v>
       </c>
-      <c r="E102" s="97" t="s">
+      <c r="E102" s="96" t="s">
         <v>573</v>
       </c>
       <c r="F102" s="84">
@@ -49906,34 +50376,34 @@
       <c r="G102" s="84">
         <v>101</v>
       </c>
-      <c r="H102" s="98" t="s">
+      <c r="H102" s="97" t="s">
         <v>626</v>
       </c>
       <c r="I102" s="86">
         <v>1</v>
       </c>
-      <c r="J102" s="97" t="s">
+      <c r="J102" s="96" t="s">
         <v>573</v>
       </c>
-      <c r="K102" s="97" t="s">
+      <c r="K102" s="96" t="s">
         <v>573</v>
       </c>
       <c r="L102" s="84">
         <v>1</v>
       </c>
-      <c r="M102" s="94">
+      <c r="M102" s="93">
         <v>14</v>
       </c>
-      <c r="N102" s="95" t="s">
+      <c r="N102" s="94" t="s">
         <v>627</v>
       </c>
-      <c r="P102" s="97" t="s">
+      <c r="P102" s="96" t="s">
         <v>572</v>
       </c>
-      <c r="Q102" s="97" t="s">
+      <c r="Q102" s="96" t="s">
         <v>575</v>
       </c>
-      <c r="R102" s="97" t="s">
+      <c r="R102" s="96" t="s">
         <v>574</v>
       </c>
     </row>
@@ -49941,16 +50411,16 @@
       <c r="A103" s="87" t="s">
         <v>180</v>
       </c>
-      <c r="B103" s="97" t="s">
+      <c r="B103" s="96" t="s">
         <v>619</v>
       </c>
-      <c r="C103" s="97" t="s">
+      <c r="C103" s="96" t="s">
         <v>619</v>
       </c>
-      <c r="D103" s="97" t="s">
+      <c r="D103" s="96" t="s">
         <v>619</v>
       </c>
-      <c r="E103" s="97" t="s">
+      <c r="E103" s="96" t="s">
         <v>619</v>
       </c>
       <c r="F103" s="84">
@@ -49959,51 +50429,51 @@
       <c r="G103" s="84">
         <v>102</v>
       </c>
-      <c r="H103" s="98" t="s">
+      <c r="H103" s="97" t="s">
         <v>629</v>
       </c>
       <c r="I103" s="86">
         <v>1</v>
       </c>
-      <c r="J103" s="97" t="s">
+      <c r="J103" s="96" t="s">
         <v>619</v>
       </c>
-      <c r="K103" s="97" t="s">
+      <c r="K103" s="96" t="s">
         <v>619</v>
       </c>
       <c r="L103" s="84">
         <v>1</v>
       </c>
-      <c r="M103" s="94">
+      <c r="M103" s="93">
         <v>15</v>
       </c>
-      <c r="N103" s="95" t="s">
+      <c r="N103" s="94" t="s">
         <v>630</v>
       </c>
-      <c r="P103" s="97" t="s">
+      <c r="P103" s="96" t="s">
         <v>483</v>
       </c>
-      <c r="Q103" s="97" t="s">
+      <c r="Q103" s="96" t="s">
         <v>486</v>
       </c>
-      <c r="R103" s="97" t="s">
+      <c r="R103" s="96" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="104" spans="1:18" ht="17">
+    <row r="104" spans="1:18" ht="29">
       <c r="A104" s="87" t="s">
         <v>181</v>
       </c>
-      <c r="B104" s="97" t="s">
+      <c r="B104" s="96" t="s">
         <v>586</v>
       </c>
-      <c r="C104" s="97" t="s">
+      <c r="C104" s="96" t="s">
         <v>586</v>
       </c>
-      <c r="D104" s="97" t="s">
+      <c r="D104" s="96" t="s">
         <v>586</v>
       </c>
-      <c r="E104" s="97" t="s">
+      <c r="E104" s="96" t="s">
         <v>586</v>
       </c>
       <c r="F104" s="84">
@@ -50012,34 +50482,34 @@
       <c r="G104" s="84">
         <v>103</v>
       </c>
-      <c r="H104" s="98" t="s">
+      <c r="H104" s="97" t="s">
         <v>632</v>
       </c>
       <c r="I104" s="86">
         <v>1</v>
       </c>
-      <c r="J104" s="97" t="s">
+      <c r="J104" s="96" t="s">
         <v>586</v>
       </c>
-      <c r="K104" s="97" t="s">
+      <c r="K104" s="96" t="s">
         <v>586</v>
       </c>
       <c r="L104" s="84">
         <v>1</v>
       </c>
-      <c r="M104" s="94">
+      <c r="M104" s="93">
         <v>16</v>
       </c>
-      <c r="N104" s="95" t="s">
+      <c r="N104" s="94" t="s">
         <v>633</v>
       </c>
-      <c r="P104" s="97" t="s">
+      <c r="P104" s="96" t="s">
         <v>572</v>
       </c>
-      <c r="Q104" s="97" t="s">
+      <c r="Q104" s="96" t="s">
         <v>575</v>
       </c>
-      <c r="R104" s="97" t="s">
+      <c r="R104" s="96" t="s">
         <v>587</v>
       </c>
     </row>
@@ -50047,16 +50517,16 @@
       <c r="A105" s="87" t="s">
         <v>182</v>
       </c>
-      <c r="B105" s="97" t="s">
+      <c r="B105" s="96" t="s">
         <v>598</v>
       </c>
-      <c r="C105" s="97" t="s">
+      <c r="C105" s="96" t="s">
         <v>598</v>
       </c>
-      <c r="D105" s="97" t="s">
+      <c r="D105" s="96" t="s">
         <v>598</v>
       </c>
-      <c r="E105" s="97" t="s">
+      <c r="E105" s="96" t="s">
         <v>598</v>
       </c>
       <c r="F105" s="84">
@@ -50065,34 +50535,34 @@
       <c r="G105" s="84">
         <v>104</v>
       </c>
-      <c r="H105" s="98" t="s">
+      <c r="H105" s="97" t="s">
         <v>635</v>
       </c>
       <c r="I105" s="86">
         <v>1</v>
       </c>
-      <c r="J105" s="97" t="s">
+      <c r="J105" s="96" t="s">
         <v>598</v>
       </c>
-      <c r="K105" s="97" t="s">
+      <c r="K105" s="96" t="s">
         <v>598</v>
       </c>
       <c r="L105" s="84">
         <v>1</v>
       </c>
-      <c r="M105" s="94">
+      <c r="M105" s="93">
         <v>17</v>
       </c>
-      <c r="N105" s="95" t="s">
+      <c r="N105" s="94" t="s">
         <v>636</v>
       </c>
-      <c r="P105" s="97" t="s">
+      <c r="P105" s="96" t="s">
         <v>504</v>
       </c>
-      <c r="Q105" s="97" t="s">
+      <c r="Q105" s="96" t="s">
         <v>507</v>
       </c>
-      <c r="R105" s="97" t="s">
+      <c r="R105" s="96" t="s">
         <v>599</v>
       </c>
     </row>
@@ -50100,16 +50570,16 @@
       <c r="A106" s="87" t="s">
         <v>183</v>
       </c>
-      <c r="B106" s="97" t="s">
+      <c r="B106" s="96" t="s">
         <v>619</v>
       </c>
-      <c r="C106" s="97" t="s">
+      <c r="C106" s="96" t="s">
         <v>619</v>
       </c>
-      <c r="D106" s="97" t="s">
+      <c r="D106" s="96" t="s">
         <v>619</v>
       </c>
-      <c r="E106" s="97" t="s">
+      <c r="E106" s="96" t="s">
         <v>619</v>
       </c>
       <c r="F106" s="84">
@@ -50118,51 +50588,51 @@
       <c r="G106" s="84">
         <v>105</v>
       </c>
-      <c r="H106" s="98" t="s">
+      <c r="H106" s="97" t="s">
         <v>638</v>
       </c>
       <c r="I106" s="86">
         <v>1</v>
       </c>
-      <c r="J106" s="97" t="s">
+      <c r="J106" s="96" t="s">
         <v>619</v>
       </c>
-      <c r="K106" s="97" t="s">
+      <c r="K106" s="96" t="s">
         <v>619</v>
       </c>
       <c r="L106" s="84">
         <v>1</v>
       </c>
-      <c r="M106" s="94">
+      <c r="M106" s="93">
         <v>18</v>
       </c>
-      <c r="N106" s="95" t="s">
+      <c r="N106" s="94" t="s">
         <v>639</v>
       </c>
-      <c r="P106" s="97" t="s">
+      <c r="P106" s="96" t="s">
         <v>483</v>
       </c>
-      <c r="Q106" s="97" t="s">
+      <c r="Q106" s="96" t="s">
         <v>486</v>
       </c>
-      <c r="R106" s="97" t="s">
+      <c r="R106" s="96" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="107" spans="1:18" ht="17">
+    <row r="107" spans="1:18" ht="29">
       <c r="A107" s="87" t="s">
         <v>184</v>
       </c>
-      <c r="B107" s="97" t="s">
+      <c r="B107" s="96" t="s">
         <v>573</v>
       </c>
-      <c r="C107" s="97" t="s">
+      <c r="C107" s="96" t="s">
         <v>573</v>
       </c>
-      <c r="D107" s="97" t="s">
+      <c r="D107" s="96" t="s">
         <v>573</v>
       </c>
-      <c r="E107" s="97" t="s">
+      <c r="E107" s="96" t="s">
         <v>573</v>
       </c>
       <c r="F107" s="84">
@@ -50171,34 +50641,34 @@
       <c r="G107" s="84">
         <v>106</v>
       </c>
-      <c r="H107" s="98" t="s">
+      <c r="H107" s="97" t="s">
         <v>641</v>
       </c>
       <c r="I107" s="86">
         <v>1</v>
       </c>
-      <c r="J107" s="97" t="s">
+      <c r="J107" s="96" t="s">
         <v>573</v>
       </c>
-      <c r="K107" s="97" t="s">
+      <c r="K107" s="96" t="s">
         <v>573</v>
       </c>
       <c r="L107" s="84">
         <v>1</v>
       </c>
-      <c r="M107" s="94">
+      <c r="M107" s="93">
         <v>19</v>
       </c>
-      <c r="N107" s="95" t="s">
+      <c r="N107" s="94" t="s">
         <v>642</v>
       </c>
-      <c r="P107" s="97" t="s">
+      <c r="P107" s="96" t="s">
         <v>572</v>
       </c>
-      <c r="Q107" s="97" t="s">
+      <c r="Q107" s="96" t="s">
         <v>575</v>
       </c>
-      <c r="R107" s="97" t="s">
+      <c r="R107" s="96" t="s">
         <v>574</v>
       </c>
     </row>
@@ -50206,16 +50676,16 @@
       <c r="A108" s="87" t="s">
         <v>185</v>
       </c>
-      <c r="B108" s="97" t="s">
+      <c r="B108" s="96" t="s">
         <v>580</v>
       </c>
-      <c r="C108" s="97" t="s">
+      <c r="C108" s="96" t="s">
         <v>580</v>
       </c>
-      <c r="D108" s="97" t="s">
+      <c r="D108" s="96" t="s">
         <v>580</v>
       </c>
-      <c r="E108" s="97" t="s">
+      <c r="E108" s="96" t="s">
         <v>580</v>
       </c>
       <c r="F108" s="84">
@@ -50224,34 +50694,34 @@
       <c r="G108" s="84">
         <v>107</v>
       </c>
-      <c r="H108" s="98" t="s">
+      <c r="H108" s="97" t="s">
         <v>644</v>
       </c>
       <c r="I108" s="86">
         <v>1</v>
       </c>
-      <c r="J108" s="97" t="s">
+      <c r="J108" s="96" t="s">
         <v>580</v>
       </c>
-      <c r="K108" s="97" t="s">
+      <c r="K108" s="96" t="s">
         <v>580</v>
       </c>
       <c r="L108" s="84">
         <v>1</v>
       </c>
-      <c r="M108" s="94">
+      <c r="M108" s="93">
         <v>20</v>
       </c>
-      <c r="N108" s="95" t="s">
+      <c r="N108" s="94" t="s">
         <v>645</v>
       </c>
-      <c r="P108" s="97" t="s">
+      <c r="P108" s="96" t="s">
         <v>483</v>
       </c>
-      <c r="Q108" s="97" t="s">
+      <c r="Q108" s="96" t="s">
         <v>486</v>
       </c>
-      <c r="R108" s="97" t="s">
+      <c r="R108" s="96" t="s">
         <v>581</v>
       </c>
     </row>
@@ -50259,16 +50729,16 @@
       <c r="A109" s="87" t="s">
         <v>186</v>
       </c>
-      <c r="B109" s="97" t="s">
+      <c r="B109" s="96" t="s">
         <v>564</v>
       </c>
-      <c r="C109" s="97" t="s">
+      <c r="C109" s="96" t="s">
         <v>564</v>
       </c>
-      <c r="D109" s="97" t="s">
+      <c r="D109" s="96" t="s">
         <v>564</v>
       </c>
-      <c r="E109" s="97" t="s">
+      <c r="E109" s="96" t="s">
         <v>564</v>
       </c>
       <c r="F109" s="84">
@@ -50277,34 +50747,34 @@
       <c r="G109" s="84">
         <v>108</v>
       </c>
-      <c r="H109" s="98" t="s">
+      <c r="H109" s="97" t="s">
         <v>647</v>
       </c>
       <c r="I109" s="86">
         <v>1</v>
       </c>
-      <c r="J109" s="97" t="s">
+      <c r="J109" s="96" t="s">
         <v>564</v>
       </c>
-      <c r="K109" s="97" t="s">
+      <c r="K109" s="96" t="s">
         <v>564</v>
       </c>
       <c r="L109" s="84">
         <v>1</v>
       </c>
-      <c r="M109" s="94">
+      <c r="M109" s="93">
         <v>21</v>
       </c>
-      <c r="N109" s="95" t="s">
+      <c r="N109" s="94" t="s">
         <v>648</v>
       </c>
-      <c r="P109" s="97" t="s">
+      <c r="P109" s="96" t="s">
         <v>504</v>
       </c>
-      <c r="Q109" s="97" t="s">
+      <c r="Q109" s="96" t="s">
         <v>507</v>
       </c>
-      <c r="R109" s="97" t="s">
+      <c r="R109" s="96" t="s">
         <v>567</v>
       </c>
     </row>
@@ -50312,16 +50782,16 @@
       <c r="A110" s="87" t="s">
         <v>187</v>
       </c>
-      <c r="B110" s="97" t="s">
+      <c r="B110" s="96" t="s">
         <v>573</v>
       </c>
-      <c r="C110" s="97" t="s">
+      <c r="C110" s="96" t="s">
         <v>573</v>
       </c>
-      <c r="D110" s="97" t="s">
+      <c r="D110" s="96" t="s">
         <v>573</v>
       </c>
-      <c r="E110" s="97" t="s">
+      <c r="E110" s="96" t="s">
         <v>573</v>
       </c>
       <c r="F110" s="84">
@@ -50330,104 +50800,104 @@
       <c r="G110" s="84">
         <v>109</v>
       </c>
-      <c r="H110" s="98" t="s">
+      <c r="H110" s="97" t="s">
         <v>650</v>
       </c>
       <c r="I110" s="86">
         <v>1</v>
       </c>
-      <c r="J110" s="97" t="s">
+      <c r="J110" s="96" t="s">
         <v>573</v>
       </c>
-      <c r="K110" s="97" t="s">
+      <c r="K110" s="96" t="s">
         <v>573</v>
       </c>
       <c r="L110" s="84">
         <v>1</v>
       </c>
-      <c r="M110" s="96">
+      <c r="M110" s="95">
         <v>22</v>
       </c>
-      <c r="N110" s="95" t="s">
+      <c r="N110" s="94" t="s">
         <v>651</v>
       </c>
-      <c r="P110" s="97" t="s">
+      <c r="P110" s="96" t="s">
         <v>572</v>
       </c>
-      <c r="Q110" s="97" t="s">
+      <c r="Q110" s="96" t="s">
         <v>575</v>
       </c>
-      <c r="R110" s="97" t="s">
+      <c r="R110" s="96" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="111" spans="1:18" s="102" customFormat="1" ht="17">
-      <c r="A111" s="100" t="s">
+    <row r="111" spans="1:18" s="101" customFormat="1" ht="17">
+      <c r="A111" s="99" t="s">
         <v>188</v>
       </c>
-      <c r="B111" s="101" t="s">
+      <c r="B111" s="100" t="s">
         <v>592</v>
       </c>
-      <c r="C111" s="101" t="s">
+      <c r="C111" s="100" t="s">
         <v>592</v>
       </c>
-      <c r="D111" s="101" t="s">
+      <c r="D111" s="100" t="s">
         <v>592</v>
       </c>
-      <c r="E111" s="101" t="s">
+      <c r="E111" s="100" t="s">
         <v>592</v>
       </c>
-      <c r="F111" s="102">
-        <v>1</v>
-      </c>
-      <c r="G111" s="102">
+      <c r="F111" s="101">
+        <v>1</v>
+      </c>
+      <c r="G111" s="101">
         <v>110</v>
       </c>
-      <c r="H111" s="103" t="s">
+      <c r="H111" s="102" t="s">
         <v>653</v>
       </c>
-      <c r="I111" s="104">
-        <v>1</v>
-      </c>
-      <c r="J111" s="101" t="s">
+      <c r="I111" s="103">
+        <v>1</v>
+      </c>
+      <c r="J111" s="100" t="s">
         <v>592</v>
       </c>
-      <c r="K111" s="101" t="s">
+      <c r="K111" s="100" t="s">
         <v>592</v>
       </c>
-      <c r="L111" s="102">
-        <v>1</v>
-      </c>
-      <c r="M111" s="105">
+      <c r="L111" s="101">
+        <v>1</v>
+      </c>
+      <c r="M111" s="104">
         <v>23</v>
       </c>
-      <c r="N111" s="106" t="s">
+      <c r="N111" s="105" t="s">
         <v>654</v>
       </c>
-      <c r="P111" s="101" t="s">
+      <c r="P111" s="100" t="s">
         <v>483</v>
       </c>
-      <c r="Q111" s="101" t="s">
+      <c r="Q111" s="100" t="s">
         <v>486</v>
       </c>
-      <c r="R111" s="101" t="s">
+      <c r="R111" s="100" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="112" spans="1:18" ht="17">
+    <row r="112" spans="1:18" ht="29">
       <c r="A112" s="87" t="s">
         <v>189</v>
       </c>
-      <c r="B112" s="97" t="s">
+      <c r="B112" s="96" t="s">
         <v>586</v>
       </c>
-      <c r="C112" s="97" t="s">
+      <c r="C112" s="96" t="s">
         <v>586</v>
       </c>
-      <c r="D112" s="97" t="s">
+      <c r="D112" s="96" t="s">
         <v>586</v>
       </c>
-      <c r="E112" s="97" t="s">
+      <c r="E112" s="96" t="s">
         <v>586</v>
       </c>
       <c r="F112" s="84">
@@ -50436,34 +50906,34 @@
       <c r="G112" s="84">
         <v>111</v>
       </c>
-      <c r="H112" s="98" t="s">
+      <c r="H112" s="97" t="s">
         <v>656</v>
       </c>
       <c r="I112" s="86">
         <v>1</v>
       </c>
-      <c r="J112" s="97" t="s">
+      <c r="J112" s="96" t="s">
         <v>586</v>
       </c>
-      <c r="K112" s="97" t="s">
+      <c r="K112" s="96" t="s">
         <v>586</v>
       </c>
       <c r="L112" s="84">
         <v>1</v>
       </c>
-      <c r="M112" s="94">
+      <c r="M112" s="93">
         <v>24</v>
       </c>
-      <c r="N112" s="95" t="s">
+      <c r="N112" s="94" t="s">
         <v>657</v>
       </c>
-      <c r="P112" s="97" t="s">
+      <c r="P112" s="96" t="s">
         <v>572</v>
       </c>
-      <c r="Q112" s="97" t="s">
+      <c r="Q112" s="96" t="s">
         <v>575</v>
       </c>
-      <c r="R112" s="97" t="s">
+      <c r="R112" s="96" t="s">
         <v>587</v>
       </c>
     </row>
@@ -50473,14 +50943,1713 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{350272F0-A7E1-4F42-81DC-C88FB60A9EB3}">
+  <dimension ref="A1:C163"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="13"/>
+    <col min="2" max="3" width="11.5" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="115" t="s">
+        <v>784</v>
+      </c>
+      <c r="B1" s="116" t="s">
+        <v>913</v>
+      </c>
+      <c r="C1" s="117" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="13" t="s">
+        <v>785</v>
+      </c>
+      <c r="B2" s="110">
+        <v>1</v>
+      </c>
+      <c r="C2" s="111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="13" t="s">
+        <v>683</v>
+      </c>
+      <c r="B3" s="110">
+        <v>1</v>
+      </c>
+      <c r="C3" s="111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="13" t="s">
+        <v>786</v>
+      </c>
+      <c r="B4" s="110"/>
+      <c r="C4" s="111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="13" t="s">
+        <v>787</v>
+      </c>
+      <c r="B5" s="110">
+        <v>1</v>
+      </c>
+      <c r="C5" s="111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="13" t="s">
+        <v>788</v>
+      </c>
+      <c r="B6" s="110">
+        <v>1</v>
+      </c>
+      <c r="C6" s="111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="13" t="s">
+        <v>789</v>
+      </c>
+      <c r="B7" s="110"/>
+      <c r="C7" s="111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="13" t="s">
+        <v>790</v>
+      </c>
+      <c r="B8" s="110">
+        <v>1</v>
+      </c>
+      <c r="C8" s="111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="13" t="s">
+        <v>791</v>
+      </c>
+      <c r="B9" s="110">
+        <v>1</v>
+      </c>
+      <c r="C9" s="111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="13" t="s">
+        <v>733</v>
+      </c>
+      <c r="B10" s="110"/>
+      <c r="C10" s="111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="13" t="s">
+        <v>792</v>
+      </c>
+      <c r="B11" s="110">
+        <v>1</v>
+      </c>
+      <c r="C11" s="111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="13" t="s">
+        <v>793</v>
+      </c>
+      <c r="B12" s="110">
+        <v>1</v>
+      </c>
+      <c r="C12" s="111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="13" t="s">
+        <v>794</v>
+      </c>
+      <c r="B13" s="110"/>
+      <c r="C13" s="111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="13" t="s">
+        <v>795</v>
+      </c>
+      <c r="B14" s="110">
+        <v>2</v>
+      </c>
+      <c r="C14" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="13" t="s">
+        <v>796</v>
+      </c>
+      <c r="B15" s="110">
+        <v>1</v>
+      </c>
+      <c r="C15" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="13" t="s">
+        <v>719</v>
+      </c>
+      <c r="B16" s="110"/>
+      <c r="C16" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="13" t="s">
+        <v>797</v>
+      </c>
+      <c r="B17" s="110">
+        <v>1</v>
+      </c>
+      <c r="C17" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="13" t="s">
+        <v>798</v>
+      </c>
+      <c r="B18" s="110">
+        <v>2</v>
+      </c>
+      <c r="C18" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="13" t="s">
+        <v>729</v>
+      </c>
+      <c r="B19" s="110"/>
+      <c r="C19" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="13" t="s">
+        <v>799</v>
+      </c>
+      <c r="B20" s="110">
+        <v>3</v>
+      </c>
+      <c r="C20" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="13" t="s">
+        <v>800</v>
+      </c>
+      <c r="B21" s="110">
+        <v>3</v>
+      </c>
+      <c r="C21" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="16">
+      <c r="A22" s="13" t="s">
+        <v>801</v>
+      </c>
+      <c r="B22" s="112"/>
+      <c r="C22" s="112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="13" t="s">
+        <v>802</v>
+      </c>
+      <c r="B23" s="110">
+        <v>1</v>
+      </c>
+      <c r="C23" s="110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="16">
+      <c r="A24" s="13" t="s">
+        <v>706</v>
+      </c>
+      <c r="B24" s="112">
+        <v>2</v>
+      </c>
+      <c r="C24" s="112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="107" t="s">
+        <v>739</v>
+      </c>
+      <c r="B25" s="110"/>
+      <c r="C25" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="13" t="s">
+        <v>803</v>
+      </c>
+      <c r="B26" s="110">
+        <v>2</v>
+      </c>
+      <c r="C26" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="13" t="s">
+        <v>804</v>
+      </c>
+      <c r="B27" s="110">
+        <v>3</v>
+      </c>
+      <c r="C27" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="13" t="s">
+        <v>805</v>
+      </c>
+      <c r="B28" s="110"/>
+      <c r="C28" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="13" t="s">
+        <v>806</v>
+      </c>
+      <c r="B29" s="110">
+        <v>1</v>
+      </c>
+      <c r="C29" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="13" t="s">
+        <v>685</v>
+      </c>
+      <c r="B30" s="110">
+        <v>1</v>
+      </c>
+      <c r="C30" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="13" t="s">
+        <v>807</v>
+      </c>
+      <c r="B31" s="110"/>
+      <c r="C31" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="13" t="s">
+        <v>693</v>
+      </c>
+      <c r="B32" s="110">
+        <v>1</v>
+      </c>
+      <c r="C32" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="13" t="s">
+        <v>808</v>
+      </c>
+      <c r="B33" s="110">
+        <v>2</v>
+      </c>
+      <c r="C33" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="13" t="s">
+        <v>730</v>
+      </c>
+      <c r="B34" s="110"/>
+      <c r="C34" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="13" t="s">
+        <v>712</v>
+      </c>
+      <c r="B35" s="110">
+        <v>2</v>
+      </c>
+      <c r="C35" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="13" t="s">
+        <v>809</v>
+      </c>
+      <c r="B36" s="110">
+        <v>2</v>
+      </c>
+      <c r="C36" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="13" t="s">
+        <v>810</v>
+      </c>
+      <c r="B37" s="110"/>
+      <c r="C37" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="13" t="s">
+        <v>811</v>
+      </c>
+      <c r="B38" s="110">
+        <v>1</v>
+      </c>
+      <c r="C38" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="13" t="s">
+        <v>687</v>
+      </c>
+      <c r="B39" s="110">
+        <v>1</v>
+      </c>
+      <c r="C39" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="13" t="s">
+        <v>812</v>
+      </c>
+      <c r="B40" s="110"/>
+      <c r="C40" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="13" t="s">
+        <v>813</v>
+      </c>
+      <c r="B41" s="110">
+        <v>1</v>
+      </c>
+      <c r="C41" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="13" t="s">
+        <v>708</v>
+      </c>
+      <c r="B42" s="110">
+        <v>2</v>
+      </c>
+      <c r="C42" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="13" t="s">
+        <v>736</v>
+      </c>
+      <c r="B43" s="110"/>
+      <c r="C43" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="13" t="s">
+        <v>814</v>
+      </c>
+      <c r="B44" s="110">
+        <v>2</v>
+      </c>
+      <c r="C44" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="13" t="s">
+        <v>815</v>
+      </c>
+      <c r="B45" s="110">
+        <v>2</v>
+      </c>
+      <c r="C45" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="13" t="s">
+        <v>816</v>
+      </c>
+      <c r="B46" s="110"/>
+      <c r="C46" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="113" t="s">
+        <v>817</v>
+      </c>
+      <c r="B47" s="110">
+        <v>3</v>
+      </c>
+      <c r="C47" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="113" t="s">
+        <v>818</v>
+      </c>
+      <c r="B48" s="110">
+        <v>3</v>
+      </c>
+      <c r="C48" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="113" t="s">
+        <v>819</v>
+      </c>
+      <c r="B49" s="110"/>
+      <c r="C49" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="113" t="s">
+        <v>704</v>
+      </c>
+      <c r="B50" s="110">
+        <v>1</v>
+      </c>
+      <c r="C50" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="113" t="s">
+        <v>820</v>
+      </c>
+      <c r="B51" s="110">
+        <v>1</v>
+      </c>
+      <c r="C51" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="113" t="s">
+        <v>727</v>
+      </c>
+      <c r="B52" s="110"/>
+      <c r="C52" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="113" t="s">
+        <v>821</v>
+      </c>
+      <c r="B53" s="110">
+        <v>2</v>
+      </c>
+      <c r="C53" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="113" t="s">
+        <v>822</v>
+      </c>
+      <c r="B54" s="110">
+        <v>2</v>
+      </c>
+      <c r="C54" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="113" t="s">
+        <v>742</v>
+      </c>
+      <c r="B55" s="110"/>
+      <c r="C55" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="13" t="s">
+        <v>823</v>
+      </c>
+      <c r="B56" s="110">
+        <v>2</v>
+      </c>
+      <c r="C56" s="111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="13" t="s">
+        <v>824</v>
+      </c>
+      <c r="B57" s="110">
+        <v>2</v>
+      </c>
+      <c r="C57" s="111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="13" t="s">
+        <v>825</v>
+      </c>
+      <c r="B58" s="110"/>
+      <c r="C58" s="111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="13" t="s">
+        <v>826</v>
+      </c>
+      <c r="B59" s="110">
+        <v>2</v>
+      </c>
+      <c r="C59" s="111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="13" t="s">
+        <v>827</v>
+      </c>
+      <c r="B60" s="110">
+        <v>2</v>
+      </c>
+      <c r="C60" s="111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="13" t="s">
+        <v>828</v>
+      </c>
+      <c r="B61" s="110"/>
+      <c r="C61" s="111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="13" t="s">
+        <v>829</v>
+      </c>
+      <c r="B62" s="110">
+        <v>2</v>
+      </c>
+      <c r="C62" s="111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="13" t="s">
+        <v>701</v>
+      </c>
+      <c r="B63" s="110">
+        <v>2</v>
+      </c>
+      <c r="C63" s="111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="13" t="s">
+        <v>830</v>
+      </c>
+      <c r="B64" s="110"/>
+      <c r="C64" s="111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="13" t="s">
+        <v>831</v>
+      </c>
+      <c r="B65" s="110">
+        <v>2</v>
+      </c>
+      <c r="C65" s="111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="13" t="s">
+        <v>832</v>
+      </c>
+      <c r="B66" s="110">
+        <v>3</v>
+      </c>
+      <c r="C66" s="111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="13" t="s">
+        <v>833</v>
+      </c>
+      <c r="B67" s="110"/>
+      <c r="C67" s="111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="13" t="s">
+        <v>834</v>
+      </c>
+      <c r="B68" s="110">
+        <v>3</v>
+      </c>
+      <c r="C68" s="106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="13" t="s">
+        <v>684</v>
+      </c>
+      <c r="B69" s="110">
+        <v>2</v>
+      </c>
+      <c r="C69" s="108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="13" t="s">
+        <v>835</v>
+      </c>
+      <c r="B70" s="110"/>
+      <c r="C70" s="106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="13" t="s">
+        <v>836</v>
+      </c>
+      <c r="B71" s="110">
+        <v>3</v>
+      </c>
+      <c r="C71" s="106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="13" t="s">
+        <v>837</v>
+      </c>
+      <c r="B72" s="110">
+        <v>3</v>
+      </c>
+      <c r="C72" s="106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="13" t="s">
+        <v>838</v>
+      </c>
+      <c r="B73" s="110"/>
+      <c r="C73" s="106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="13" t="s">
+        <v>839</v>
+      </c>
+      <c r="B74" s="110">
+        <v>2</v>
+      </c>
+      <c r="C74" s="106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="13" t="s">
+        <v>840</v>
+      </c>
+      <c r="B75" s="110">
+        <v>2</v>
+      </c>
+      <c r="C75" s="106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="13" t="s">
+        <v>841</v>
+      </c>
+      <c r="B76" s="110"/>
+      <c r="C76" s="106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="13" t="s">
+        <v>842</v>
+      </c>
+      <c r="B77" s="110">
+        <v>2</v>
+      </c>
+      <c r="C77" s="106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="13" t="s">
+        <v>843</v>
+      </c>
+      <c r="B78" s="110">
+        <v>3</v>
+      </c>
+      <c r="C78" s="106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="13" t="s">
+        <v>844</v>
+      </c>
+      <c r="B79" s="110"/>
+      <c r="C79" s="106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="13" t="s">
+        <v>845</v>
+      </c>
+      <c r="B80" s="110">
+        <v>1</v>
+      </c>
+      <c r="C80" s="106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="13" t="s">
+        <v>846</v>
+      </c>
+      <c r="B81" s="110">
+        <v>1</v>
+      </c>
+      <c r="C81" s="106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="13" t="s">
+        <v>847</v>
+      </c>
+      <c r="B82" s="114"/>
+      <c r="C82" s="109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="13" t="s">
+        <v>848</v>
+      </c>
+      <c r="B83" s="110">
+        <v>2</v>
+      </c>
+      <c r="C83" s="106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="13" t="s">
+        <v>849</v>
+      </c>
+      <c r="B84" s="110">
+        <v>2</v>
+      </c>
+      <c r="C84" s="106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="13" t="s">
+        <v>850</v>
+      </c>
+      <c r="B85" s="110"/>
+      <c r="C85" s="106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="13" t="s">
+        <v>851</v>
+      </c>
+      <c r="B86" s="110">
+        <v>3</v>
+      </c>
+      <c r="C86" s="106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="13" t="s">
+        <v>852</v>
+      </c>
+      <c r="B87" s="110">
+        <v>1</v>
+      </c>
+      <c r="C87" s="106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="13" t="s">
+        <v>853</v>
+      </c>
+      <c r="B88" s="110"/>
+      <c r="C88" s="106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="13" t="s">
+        <v>854</v>
+      </c>
+      <c r="B89" s="110">
+        <v>1</v>
+      </c>
+      <c r="C89" s="106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="13" t="s">
+        <v>698</v>
+      </c>
+      <c r="B90" s="110">
+        <v>1</v>
+      </c>
+      <c r="C90" s="106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="13" t="s">
+        <v>740</v>
+      </c>
+      <c r="B91" s="110"/>
+      <c r="C91" s="106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="13" t="s">
+        <v>855</v>
+      </c>
+      <c r="B92" s="110">
+        <v>2</v>
+      </c>
+      <c r="C92" s="106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="13" t="s">
+        <v>856</v>
+      </c>
+      <c r="B93" s="110">
+        <v>2</v>
+      </c>
+      <c r="C93" s="106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="13" t="s">
+        <v>857</v>
+      </c>
+      <c r="B94" s="110"/>
+      <c r="C94" s="106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="13" t="s">
+        <v>858</v>
+      </c>
+      <c r="B95" s="110">
+        <v>2</v>
+      </c>
+      <c r="C95" s="106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="13" t="s">
+        <v>859</v>
+      </c>
+      <c r="B96" s="110">
+        <v>3</v>
+      </c>
+      <c r="C96" s="106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="13" t="s">
+        <v>726</v>
+      </c>
+      <c r="B97" s="110"/>
+      <c r="C97" s="106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="13" t="s">
+        <v>860</v>
+      </c>
+      <c r="B98" s="110">
+        <v>1</v>
+      </c>
+      <c r="C98" s="106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="13" t="s">
+        <v>861</v>
+      </c>
+      <c r="B99" s="110">
+        <v>3</v>
+      </c>
+      <c r="C99" s="106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="13" t="s">
+        <v>862</v>
+      </c>
+      <c r="B100" s="110"/>
+      <c r="C100" s="106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="113" t="s">
+        <v>863</v>
+      </c>
+      <c r="B101" s="110">
+        <v>1</v>
+      </c>
+      <c r="C101" s="106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="113" t="s">
+        <v>864</v>
+      </c>
+      <c r="B102" s="110">
+        <v>1</v>
+      </c>
+      <c r="C102" s="106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="113" t="s">
+        <v>865</v>
+      </c>
+      <c r="B103" s="110"/>
+      <c r="C103" s="106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="113" t="s">
+        <v>866</v>
+      </c>
+      <c r="B104" s="110">
+        <v>3</v>
+      </c>
+      <c r="C104" s="106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="113" t="s">
+        <v>867</v>
+      </c>
+      <c r="B105" s="110">
+        <v>3</v>
+      </c>
+      <c r="C105" s="106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="113" t="s">
+        <v>868</v>
+      </c>
+      <c r="B106" s="110"/>
+      <c r="C106" s="106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="113" t="s">
+        <v>869</v>
+      </c>
+      <c r="B107" s="110">
+        <v>3</v>
+      </c>
+      <c r="C107" s="106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="113" t="s">
+        <v>870</v>
+      </c>
+      <c r="B108" s="110">
+        <v>3</v>
+      </c>
+      <c r="C108" s="106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="113" t="s">
+        <v>737</v>
+      </c>
+      <c r="B109" s="110"/>
+      <c r="C109" s="106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="13" t="s">
+        <v>871</v>
+      </c>
+      <c r="B110" s="110"/>
+      <c r="C110" s="111">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="13" t="s">
+        <v>872</v>
+      </c>
+      <c r="B111" s="110"/>
+      <c r="C111" s="111">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="13" t="s">
+        <v>723</v>
+      </c>
+      <c r="B112" s="110"/>
+      <c r="C112" s="111">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="13" t="s">
+        <v>873</v>
+      </c>
+      <c r="B113" s="110">
+        <v>3</v>
+      </c>
+      <c r="C113" s="111">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="13" t="s">
+        <v>874</v>
+      </c>
+      <c r="B114" s="110">
+        <v>3</v>
+      </c>
+      <c r="C114" s="111">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="13" t="s">
+        <v>875</v>
+      </c>
+      <c r="B115" s="110"/>
+      <c r="C115" s="111">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="13" t="s">
+        <v>876</v>
+      </c>
+      <c r="B116" s="110">
+        <v>3</v>
+      </c>
+      <c r="C116" s="111">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="13" t="s">
+        <v>877</v>
+      </c>
+      <c r="B117" s="110">
+        <v>3</v>
+      </c>
+      <c r="C117" s="111">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="13" t="s">
+        <v>738</v>
+      </c>
+      <c r="B118" s="110"/>
+      <c r="C118" s="111">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="13" t="s">
+        <v>878</v>
+      </c>
+      <c r="B119" s="110">
+        <v>3</v>
+      </c>
+      <c r="C119" s="111">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="13" t="s">
+        <v>710</v>
+      </c>
+      <c r="B120" s="110">
+        <v>2</v>
+      </c>
+      <c r="C120" s="111">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="13" t="s">
+        <v>879</v>
+      </c>
+      <c r="B121" s="110"/>
+      <c r="C121" s="111">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="13" t="s">
+        <v>880</v>
+      </c>
+      <c r="B122" s="110">
+        <v>1</v>
+      </c>
+      <c r="C122" s="106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="13" t="s">
+        <v>692</v>
+      </c>
+      <c r="B123" s="114">
+        <v>3</v>
+      </c>
+      <c r="C123" s="109">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="13" t="s">
+        <v>724</v>
+      </c>
+      <c r="B124" s="110"/>
+      <c r="C124" s="106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="13" t="s">
+        <v>881</v>
+      </c>
+      <c r="B125" s="110">
+        <v>2</v>
+      </c>
+      <c r="C125" s="106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="13" t="s">
+        <v>882</v>
+      </c>
+      <c r="B126" s="110">
+        <v>1</v>
+      </c>
+      <c r="C126" s="106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="13" t="s">
+        <v>883</v>
+      </c>
+      <c r="B127" s="110"/>
+      <c r="C127" s="106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="13" t="s">
+        <v>884</v>
+      </c>
+      <c r="B128" s="110">
+        <v>1</v>
+      </c>
+      <c r="C128" s="106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="13" t="s">
+        <v>885</v>
+      </c>
+      <c r="B129" s="110">
+        <v>1</v>
+      </c>
+      <c r="C129" s="106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="13" t="s">
+        <v>886</v>
+      </c>
+      <c r="B130" s="110"/>
+      <c r="C130" s="106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="13" t="s">
+        <v>887</v>
+      </c>
+      <c r="B131" s="110">
+        <v>3</v>
+      </c>
+      <c r="C131" s="106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="13" t="s">
+        <v>888</v>
+      </c>
+      <c r="B132" s="110">
+        <v>1</v>
+      </c>
+      <c r="C132" s="106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="13" t="s">
+        <v>889</v>
+      </c>
+      <c r="B133" s="110"/>
+      <c r="C133" s="106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="13" t="s">
+        <v>890</v>
+      </c>
+      <c r="B134" s="110">
+        <v>3</v>
+      </c>
+      <c r="C134" s="106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="13" t="s">
+        <v>891</v>
+      </c>
+      <c r="B135" s="110">
+        <v>2</v>
+      </c>
+      <c r="C135" s="106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="13" t="s">
+        <v>892</v>
+      </c>
+      <c r="B136" s="110"/>
+      <c r="C136" s="106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="13" t="s">
+        <v>893</v>
+      </c>
+      <c r="B137" s="114"/>
+      <c r="C137" s="109">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="13" t="s">
+        <v>894</v>
+      </c>
+      <c r="B138" s="110"/>
+      <c r="C138" s="106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="13" t="s">
+        <v>895</v>
+      </c>
+      <c r="B139" s="110"/>
+      <c r="C139" s="106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="13" t="s">
+        <v>896</v>
+      </c>
+      <c r="B140" s="110">
+        <v>2</v>
+      </c>
+      <c r="C140" s="106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="13" t="s">
+        <v>897</v>
+      </c>
+      <c r="B141" s="110">
+        <v>3</v>
+      </c>
+      <c r="C141" s="106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="13" t="s">
+        <v>898</v>
+      </c>
+      <c r="B142" s="110"/>
+      <c r="C142" s="106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="13" t="s">
+        <v>899</v>
+      </c>
+      <c r="B143" s="110">
+        <v>3</v>
+      </c>
+      <c r="C143" s="106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="13" t="s">
+        <v>714</v>
+      </c>
+      <c r="B144" s="110">
+        <v>3</v>
+      </c>
+      <c r="C144" s="106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="13" t="s">
+        <v>900</v>
+      </c>
+      <c r="B145" s="110"/>
+      <c r="C145" s="106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="13" t="s">
+        <v>901</v>
+      </c>
+      <c r="B146" s="110">
+        <v>3</v>
+      </c>
+      <c r="C146" s="106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="13" t="s">
+        <v>902</v>
+      </c>
+      <c r="B147" s="110">
+        <v>3</v>
+      </c>
+      <c r="C147" s="106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="13" t="s">
+        <v>903</v>
+      </c>
+      <c r="B148" s="110"/>
+      <c r="C148" s="106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="13" t="s">
+        <v>904</v>
+      </c>
+      <c r="B149" s="110">
+        <v>3</v>
+      </c>
+      <c r="C149" s="106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="13" t="s">
+        <v>905</v>
+      </c>
+      <c r="B150" s="110">
+        <v>1</v>
+      </c>
+      <c r="C150" s="106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="13" t="s">
+        <v>731</v>
+      </c>
+      <c r="B151" s="110"/>
+      <c r="C151" s="106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="13" t="s">
+        <v>906</v>
+      </c>
+      <c r="B152" s="110">
+        <v>3</v>
+      </c>
+      <c r="C152" s="106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="13" t="s">
+        <v>907</v>
+      </c>
+      <c r="B153" s="110">
+        <v>1</v>
+      </c>
+      <c r="C153" s="106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="13" t="s">
+        <v>741</v>
+      </c>
+      <c r="B154" s="110"/>
+      <c r="C154" s="106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="113" t="s">
+        <v>908</v>
+      </c>
+      <c r="B155" s="110">
+        <v>2</v>
+      </c>
+      <c r="C155" s="106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="113" t="s">
+        <v>909</v>
+      </c>
+      <c r="B156" s="110">
+        <v>2</v>
+      </c>
+      <c r="C156" s="106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="113" t="s">
+        <v>722</v>
+      </c>
+      <c r="B157" s="110"/>
+      <c r="C157" s="106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="113" t="s">
+        <v>709</v>
+      </c>
+      <c r="B158" s="110">
+        <v>2</v>
+      </c>
+      <c r="C158" s="106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="113" t="s">
+        <v>695</v>
+      </c>
+      <c r="B159" s="110">
+        <v>2</v>
+      </c>
+      <c r="C159" s="106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="113" t="s">
+        <v>910</v>
+      </c>
+      <c r="B160" s="110"/>
+      <c r="C160" s="106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="113" t="s">
+        <v>911</v>
+      </c>
+      <c r="B161" s="110">
+        <v>1</v>
+      </c>
+      <c r="C161" s="106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="113" t="s">
+        <v>717</v>
+      </c>
+      <c r="B162" s="110">
+        <v>1</v>
+      </c>
+      <c r="C162" s="106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="113" t="s">
+        <v>912</v>
+      </c>
+      <c r="B163" s="110"/>
+      <c r="C163" s="106">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:W9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J55" sqref="J55"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="11" max="11" width="54.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:23" s="13" customFormat="1">
       <c r="A1" s="13" t="s">
@@ -50532,7 +52701,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="13" customFormat="1" ht="256">
+    <row r="2" spans="1:23" s="13" customFormat="1" ht="48">
       <c r="A2" s="60" t="s">
         <v>767</v>
       </c>
@@ -50582,7 +52751,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="3" spans="1:23" s="13" customFormat="1" ht="224">
+    <row r="3" spans="1:23" s="13" customFormat="1" ht="48">
       <c r="A3" s="60" t="s">
         <v>768</v>
       </c>
@@ -50632,7 +52801,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="4" spans="1:23" s="13" customFormat="1" ht="224">
+    <row r="4" spans="1:23" s="13" customFormat="1" ht="48">
       <c r="A4" s="60" t="s">
         <v>769</v>
       </c>
@@ -50679,7 +52848,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="5" spans="1:23" s="13" customFormat="1" ht="64">
+    <row r="5" spans="1:23" s="13" customFormat="1" ht="17">
       <c r="A5" s="60" t="s">
         <v>770</v>
       </c>
@@ -50722,7 +52891,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="6" spans="1:23" s="13" customFormat="1" ht="240">
+    <row r="6" spans="1:23" s="13" customFormat="1" ht="48">
       <c r="A6" s="60" t="s">
         <v>75</v>
       </c>
@@ -50769,7 +52938,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="7" spans="1:23" s="13" customFormat="1" ht="272">
+    <row r="7" spans="1:23" s="13" customFormat="1" ht="48">
       <c r="A7" s="60" t="s">
         <v>76</v>
       </c>
@@ -50816,7 +52985,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="8" spans="1:23" s="13" customFormat="1" ht="272">
+    <row r="8" spans="1:23" s="13" customFormat="1" ht="48">
       <c r="A8" s="60" t="s">
         <v>77</v>
       </c>
@@ -50863,7 +53032,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="9" spans="1:23" s="13" customFormat="1" ht="80">
+    <row r="9" spans="1:23" s="13" customFormat="1" ht="16">
       <c r="A9" s="60" t="s">
         <v>78</v>
       </c>
@@ -50911,11 +53080,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:R52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection sqref="A1:R52"/>
     </sheetView>
   </sheetViews>

--- a/dados/bd_senna_rdz_sal.xlsx
+++ b/dados/bd_senna_rdz_sal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rprimi/Dropbox (Personal)/Ciencia de dados/ds_psicom/dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B367333D-9FDD-884E-A06A-D5CE4890F09F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{571E5E51-F51B-7041-A861-B2739DEEEE47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bd" sheetId="8" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="dic_vign" sheetId="7" r:id="rId5"/>
     <sheet name="SAL" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -3822,8 +3822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:FM77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -44797,14 +44797,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:T112"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S1" sqref="S1"/>
+      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="12" width="10.83203125" style="84"/>
+    <col min="1" max="11" width="10.83203125" style="84"/>
+    <col min="12" max="12" width="9.83203125" style="84" customWidth="1"/>
     <col min="13" max="13" width="14" style="85" customWidth="1"/>
     <col min="14" max="14" width="62.83203125" style="84" customWidth="1"/>
     <col min="15" max="15" width="26.1640625" style="84" customWidth="1"/>
@@ -53084,7 +53085,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:R52"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:R52"/>
     </sheetView>
   </sheetViews>
